--- a/CE01ISSM/Omaha_Cal_Info_CE01ISSM_00003.xlsx
+++ b/CE01ISSM/Omaha_Cal_Info_CE01ISSM_00003.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="27440" yWindow="580" windowWidth="32420" windowHeight="16740" tabRatio="759" activeTab="1"/>
+    <workbookView xWindow="27435" yWindow="585" windowWidth="29040" windowHeight="16440" tabRatio="759"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="198">
   <si>
     <t>Ref Des</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>CE01ISSM</t>
-  </si>
-  <si>
-    <t>25m</t>
   </si>
   <si>
     <t>Mooring Serial Number</t>
@@ -536,12 +533,6 @@
     <t>decimal longitude</t>
   </si>
   <si>
-    <t>124° 5' 43.37" E</t>
-  </si>
-  <si>
-    <t>44° 39' 30.24" N</t>
-  </si>
-  <si>
     <t>2D  vector required by DPA</t>
   </si>
   <si>
@@ -622,17 +613,23 @@
   <si>
     <t>config sheet: "Not 'Plan B' deployment" NOT INSTALLED</t>
   </si>
+  <si>
+    <t>44° 39.5' N</t>
+  </si>
+  <si>
+    <t>124° 5.716' W</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="d\-mmm\-yy;@"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="0.0000000E+00"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000E+00"/>
   </numFmts>
   <fonts count="34" x14ac:knownFonts="1">
     <font>
@@ -1041,7 +1038,7 @@
   <cellStyleXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
@@ -1115,13 +1112,13 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
@@ -1146,7 +1143,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -1203,7 +1200,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1329,7 +1326,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="164" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="164" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1360,18 +1357,18 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="165" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="167"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="20" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1946,24 +1943,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" style="1"/>
-    <col min="4" max="4" width="8.83203125" style="2"/>
-    <col min="5" max="5" width="8.83203125" style="3"/>
-    <col min="6" max="6" width="8.83203125" style="2"/>
-    <col min="7" max="7" width="14.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" style="1" customWidth="1"/>
-    <col min="9" max="11" width="8.83203125" style="1"/>
-    <col min="12" max="12" width="12.1640625" style="1" customWidth="1"/>
-    <col min="13" max="1025" width="8.83203125" style="1"/>
+    <col min="1" max="3" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="8.85546875" style="2"/>
+    <col min="5" max="5" width="8.85546875" style="3"/>
+    <col min="6" max="6" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="1" customWidth="1"/>
+    <col min="9" max="11" width="8.85546875" style="1"/>
+    <col min="12" max="12" width="12.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="1" customWidth="1"/>
+    <col min="14" max="1025" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="42">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1998,18 +1996,18 @@
         <v>10</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>169</v>
-      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" s="12">
         <v>3</v>
@@ -2024,16 +2022,16 @@
         <v>42284</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="I2" s="57" t="s">
-        <v>12</v>
+        <v>197</v>
+      </c>
+      <c r="I2" s="57">
+        <v>25</v>
       </c>
       <c r="J2" s="57" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K2" s="46"/>
       <c r="L2" s="58">
@@ -2043,7 +2041,7 @@
         <v>-124.09538000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G5" s="47"/>
     </row>
   </sheetData>
@@ -2061,50 +2059,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.33203125" style="13" customWidth="1"/>
-    <col min="2" max="3" width="8.83203125" style="13"/>
-    <col min="4" max="4" width="42.33203125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="13"/>
-    <col min="6" max="6" width="75.6640625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="33.6640625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="27.33203125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" style="13" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="13"/>
-    <col min="11" max="11" width="15.83203125" style="13" customWidth="1"/>
-    <col min="12" max="12" width="26.33203125" style="13" customWidth="1"/>
-    <col min="13" max="1025" width="8.83203125" style="13"/>
+    <col min="1" max="1" width="48.28515625" style="13" customWidth="1"/>
+    <col min="2" max="3" width="8.85546875" style="13"/>
+    <col min="4" max="4" width="42.28515625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="13"/>
+    <col min="6" max="6" width="75.7109375" style="33" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="13"/>
+    <col min="11" max="11" width="15.85546875" style="13" customWidth="1"/>
+    <col min="12" max="12" width="26.28515625" style="13" customWidth="1"/>
+    <col min="13" max="1025" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="15" customFormat="1">
+    <row r="1" spans="1:1024" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="30" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>16</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1024">
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3130,28 +3128,28 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024">
+    <row r="3" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="D3" s="35"/>
       <c r="E3" s="16"/>
       <c r="F3" s="51"/>
       <c r="G3" s="35" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J3" s="16">
         <v>3</v>
       </c>
       <c r="K3" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M3" s="16"/>
       <c r="N3" s="16"/>
@@ -3173,26 +3171,26 @@
       <c r="AD3" s="16"/>
       <c r="AE3" s="16"/>
     </row>
-    <row r="4" spans="1:1024">
+    <row r="4" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
       <c r="D4" s="35"/>
       <c r="E4" s="16"/>
       <c r="F4" s="51"/>
       <c r="G4" s="35"/>
       <c r="H4" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J4" s="16">
         <v>3</v>
       </c>
       <c r="K4" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
@@ -3214,26 +3212,26 @@
       <c r="AD4" s="16"/>
       <c r="AE4" s="16"/>
     </row>
-    <row r="5" spans="1:1024">
+    <row r="5" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="D5" s="35"/>
       <c r="E5" s="16"/>
       <c r="F5" s="42"/>
       <c r="G5" s="37"/>
       <c r="H5" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J5" s="16">
         <v>3</v>
       </c>
       <c r="K5" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
@@ -3255,26 +3253,26 @@
       <c r="AD5" s="16"/>
       <c r="AE5" s="16"/>
     </row>
-    <row r="6" spans="1:1024">
+    <row r="6" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="D6" s="35"/>
       <c r="E6" s="16"/>
       <c r="F6" s="42"/>
       <c r="G6" s="48"/>
       <c r="H6" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J6" s="16">
         <v>3</v>
       </c>
       <c r="K6" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M6" s="48"/>
       <c r="N6" s="68"/>
@@ -3296,26 +3294,26 @@
       <c r="AD6" s="16"/>
       <c r="AE6" s="16"/>
     </row>
-    <row r="7" spans="1:1024">
+    <row r="7" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="D7" s="35"/>
       <c r="E7" s="16"/>
       <c r="F7" s="42"/>
       <c r="G7" s="37"/>
       <c r="H7" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J7" s="16">
         <v>3</v>
       </c>
       <c r="K7" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
@@ -3337,426 +3335,426 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="16"/>
     </row>
-    <row r="8" spans="1:1024">
+    <row r="8" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
       <c r="D8" s="35"/>
       <c r="E8" s="16"/>
       <c r="F8" s="42"/>
       <c r="G8" s="49"/>
       <c r="H8" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J8" s="16">
         <v>3</v>
       </c>
       <c r="K8" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M8" s="50"/>
     </row>
-    <row r="9" spans="1:1024">
+    <row r="9" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A9" s="36"/>
       <c r="D9" s="35"/>
       <c r="E9" s="16"/>
       <c r="F9" s="42"/>
       <c r="G9"/>
       <c r="H9" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J9" s="16">
         <v>3</v>
       </c>
       <c r="K9" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:1024">
+    <row r="10" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="D10" s="35"/>
       <c r="E10" s="16"/>
       <c r="F10" s="42"/>
       <c r="G10"/>
       <c r="H10" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J10" s="16">
         <v>3</v>
       </c>
       <c r="K10" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:1024">
+    <row r="11" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A11" s="36"/>
       <c r="D11" s="35"/>
       <c r="E11" s="16"/>
       <c r="F11" s="42"/>
       <c r="G11"/>
       <c r="H11" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J11" s="16">
         <v>3</v>
       </c>
       <c r="K11" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:1024">
+    <row r="12" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="D12" s="35"/>
       <c r="E12" s="16"/>
       <c r="F12" s="42"/>
       <c r="G12"/>
       <c r="H12" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J12" s="16">
         <v>3</v>
       </c>
       <c r="K12" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:1024">
+    <row r="13" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A13" s="36"/>
       <c r="D13" s="35"/>
       <c r="E13" s="16"/>
       <c r="F13" s="42"/>
       <c r="G13"/>
       <c r="H13" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J13" s="16">
         <v>3</v>
       </c>
       <c r="K13" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:1024">
+    <row r="14" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="D14" s="35"/>
       <c r="E14" s="16"/>
       <c r="F14" s="42"/>
       <c r="G14"/>
       <c r="H14" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J14" s="16">
         <v>3</v>
       </c>
       <c r="K14" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:1024">
+    <row r="15" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
       <c r="D15" s="35"/>
       <c r="E15" s="16"/>
       <c r="F15" s="42"/>
       <c r="G15"/>
       <c r="H15" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J15" s="16">
         <v>3</v>
       </c>
       <c r="K15" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="D16" s="35"/>
       <c r="E16" s="16"/>
       <c r="F16" s="42"/>
       <c r="G16"/>
       <c r="H16" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J16" s="16">
         <v>3</v>
       </c>
       <c r="K16" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="36"/>
       <c r="D17" s="35"/>
       <c r="E17" s="16"/>
       <c r="F17" s="42"/>
       <c r="G17"/>
       <c r="H17" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J17" s="16">
         <v>3</v>
       </c>
       <c r="K17" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="D18" s="35"/>
       <c r="E18" s="16"/>
       <c r="F18" s="42"/>
       <c r="G18"/>
       <c r="H18" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J18" s="16">
         <v>3</v>
       </c>
       <c r="K18" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="36"/>
       <c r="D19" s="35"/>
       <c r="E19" s="16"/>
       <c r="F19" s="42"/>
       <c r="G19"/>
       <c r="H19" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J19" s="16">
         <v>3</v>
       </c>
       <c r="K19" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
       <c r="D20" s="35"/>
       <c r="E20" s="16"/>
       <c r="F20" s="42"/>
       <c r="G20"/>
       <c r="H20" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J20" s="16">
         <v>3</v>
       </c>
       <c r="K20" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="36"/>
       <c r="D21" s="35"/>
       <c r="E21" s="16"/>
       <c r="F21" s="42"/>
       <c r="G21"/>
       <c r="H21" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J21" s="16">
         <v>3</v>
       </c>
       <c r="K21" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="36"/>
       <c r="D22" s="35"/>
       <c r="E22" s="16"/>
       <c r="F22" s="42"/>
       <c r="G22"/>
       <c r="H22" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J22" s="16">
         <v>3</v>
       </c>
       <c r="K22" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="36"/>
       <c r="D23" s="35"/>
       <c r="E23" s="16"/>
       <c r="F23" s="42"/>
       <c r="G23"/>
       <c r="H23" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J23" s="16">
         <v>3</v>
       </c>
       <c r="K23" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="36"/>
       <c r="D24" s="35"/>
       <c r="E24" s="16"/>
       <c r="F24" s="42"/>
       <c r="G24"/>
       <c r="H24" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J24" s="16">
         <v>3</v>
       </c>
       <c r="K24" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
       <c r="D25" s="35"/>
       <c r="E25" s="16"/>
       <c r="F25" s="42"/>
       <c r="G25"/>
       <c r="H25" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J25" s="16">
         <v>3</v>
       </c>
       <c r="K25" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
       <c r="D26" s="35"/>
       <c r="E26" s="16"/>
       <c r="F26" s="42"/>
       <c r="G26"/>
       <c r="H26" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J26" s="16">
         <v>3</v>
       </c>
       <c r="K26" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -3765,207 +3763,207 @@
       <c r="F27" s="31"/>
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F28" s="43"/>
       <c r="G28" s="35" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J28" s="13">
         <v>3</v>
       </c>
       <c r="K28" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L28" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F29" s="43"/>
       <c r="G29"/>
       <c r="H29" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J29" s="13">
         <v>3</v>
       </c>
       <c r="K29" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F30" s="43"/>
       <c r="G30"/>
       <c r="H30" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J30" s="13">
         <v>3</v>
       </c>
       <c r="K30" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F31" s="43"/>
       <c r="G31"/>
       <c r="H31" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J31" s="13">
         <v>3</v>
       </c>
       <c r="K31" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F32" s="43"/>
       <c r="G32"/>
       <c r="H32" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J32" s="13">
         <v>3</v>
       </c>
       <c r="K32" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L32" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:1024">
+    <row r="33" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="F33" s="43"/>
       <c r="G33"/>
       <c r="H33" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J33" s="13">
         <v>3</v>
       </c>
       <c r="K33" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:1024">
+    <row r="34" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="F34" s="43"/>
       <c r="G34" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J34" s="13">
         <v>3</v>
       </c>
       <c r="K34" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L34" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:1024">
+    <row r="35" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="F35" s="43"/>
       <c r="G35" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J35" s="13">
         <v>3</v>
       </c>
       <c r="K35" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:1024">
+    <row r="36" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="F36" s="43"/>
       <c r="G36" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J36" s="13">
         <v>3</v>
       </c>
       <c r="K36" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L36" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:1024">
+    <row r="37" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="F37" s="43"/>
       <c r="G37" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J37" s="13">
         <v>3</v>
       </c>
       <c r="K37" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:1024">
+    <row r="38" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -3974,23 +3972,23 @@
       <c r="F38" s="31"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="1:1024">
+    <row r="39" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C39" s="13">
         <v>3</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E39" s="16"/>
       <c r="F39" s="44"/>
       <c r="G39" s="19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H39"/>
       <c r="I39"/>
@@ -5010,7 +5008,7 @@
       <c r="AMI39"/>
       <c r="AMJ39"/>
     </row>
-    <row r="40" spans="1:1024">
+    <row r="40" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -6036,12 +6034,12 @@
       <c r="AMI40"/>
       <c r="AMJ40"/>
     </row>
-    <row r="41" spans="1:1024">
+    <row r="41" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C41" s="13">
         <v>3</v>
@@ -6050,7 +6048,7 @@
         <v>11823</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F41" s="51">
         <v>44.6584</v>
@@ -7074,12 +7072,12 @@
       <c r="AMI41"/>
       <c r="AMJ41"/>
     </row>
-    <row r="42" spans="1:1024">
+    <row r="42" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C42" s="13">
         <v>3</v>
@@ -7088,7 +7086,7 @@
         <v>11823</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F42" s="51">
         <v>-124.09538000000001</v>
@@ -8112,7 +8110,7 @@
       <c r="AMI42"/>
       <c r="AMJ42"/>
     </row>
-    <row r="43" spans="1:1024">
+    <row r="43" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -9138,61 +9136,61 @@
       <c r="AMI43"/>
       <c r="AMJ43"/>
     </row>
-    <row r="44" spans="1:1024">
+    <row r="44" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C44" s="13">
         <v>3</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F44" s="51">
         <v>44.6584</v>
       </c>
     </row>
-    <row r="45" spans="1:1024">
+    <row r="45" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C45" s="13">
         <v>3</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F45" s="51">
         <v>-124.09538000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:1024">
+    <row r="46" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C46" s="13">
         <v>3</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F46" s="67">
         <v>1.2363459999999999E-3</v>
@@ -9201,21 +9199,21 @@
       <c r="H46" s="16"/>
       <c r="I46" s="53"/>
     </row>
-    <row r="47" spans="1:1024">
+    <row r="47" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C47" s="13">
         <v>3</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F47" s="67">
         <v>2.7762039999999999E-4</v>
@@ -9224,21 +9222,21 @@
       <c r="H47" s="16"/>
       <c r="I47" s="53"/>
     </row>
-    <row r="48" spans="1:1024">
+    <row r="48" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C48" s="13">
         <v>3</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F48" s="67">
         <v>-1.251654E-6</v>
@@ -9247,21 +9245,21 @@
       <c r="H48" s="16"/>
       <c r="I48" s="53"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C49" s="13">
         <v>3</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F49" s="67">
         <v>1.8859919999999999E-7</v>
@@ -9270,21 +9268,21 @@
       <c r="H49" s="16"/>
       <c r="I49" s="53"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C50" s="13">
         <v>3</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F50" s="67">
         <v>-64.041795899999997</v>
@@ -9293,21 +9291,21 @@
       <c r="H50" s="16"/>
       <c r="I50" s="53"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C51" s="13">
         <v>3</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F51" s="67">
         <v>53.763796599999999</v>
@@ -9316,21 +9314,21 @@
       <c r="H51" s="16"/>
       <c r="I51" s="53"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C52" s="13">
         <v>3</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F52" s="67">
         <v>-0.54870572399999995</v>
@@ -9339,21 +9337,21 @@
       <c r="H52" s="16"/>
       <c r="I52" s="53"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C53" s="13">
         <v>3</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F53" s="67">
         <v>525624.446</v>
@@ -9362,21 +9360,21 @@
       <c r="H53" s="16"/>
       <c r="I53" s="53"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C54" s="13">
         <v>3</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F54" s="67">
         <v>5.4977469799999996</v>
@@ -9385,21 +9383,21 @@
       <c r="H54" s="16"/>
       <c r="I54" s="50"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C55" s="13">
         <v>3</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F55" s="67">
         <v>8.8390539599999998E-2</v>
@@ -9408,21 +9406,21 @@
       <c r="H55" s="16"/>
       <c r="I55" s="50"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C56" s="13">
         <v>3</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F56" s="67">
         <v>24.856874999999999</v>
@@ -9431,21 +9429,21 @@
       <c r="H56" s="16"/>
       <c r="I56" s="50"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C57" s="13">
         <v>3</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F57" s="67">
         <v>-6.2500000000000001E-4</v>
@@ -9454,21 +9452,21 @@
       <c r="H57" s="16"/>
       <c r="I57" s="50"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C58" s="13">
         <v>3</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F58" s="67">
         <v>0</v>
@@ -9477,21 +9475,21 @@
       <c r="H58" s="16"/>
       <c r="I58" s="50"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C59" s="13">
         <v>3</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F59" s="67">
         <v>8.7328158200000006E-2</v>
@@ -9500,21 +9498,21 @@
       <c r="H59" s="16"/>
       <c r="I59" s="50"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="13">
         <v>3</v>
       </c>
       <c r="D60" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F60" s="67">
         <v>4.9403477600000001E-4</v>
@@ -9523,21 +9521,21 @@
       <c r="H60" s="16"/>
       <c r="I60" s="50"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C61" s="13">
         <v>3</v>
       </c>
       <c r="D61" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F61" s="67">
         <v>-9.62249843E-12</v>
@@ -9546,21 +9544,21 @@
       <c r="H61" s="16"/>
       <c r="I61" s="50"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C62" s="13">
         <v>3</v>
       </c>
       <c r="D62" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F62" s="67">
         <v>-0.98595580000000005</v>
@@ -9569,21 +9567,21 @@
       <c r="H62" s="16"/>
       <c r="I62" s="50"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C63" s="13">
         <v>3</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F63" s="67">
         <v>0.15596170000000001</v>
@@ -9592,21 +9590,21 @@
       <c r="H63" s="16"/>
       <c r="I63" s="50"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C64" s="13">
         <v>3</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F64" s="67">
         <v>-3.42801E-4</v>
@@ -9615,21 +9613,21 @@
       <c r="H64" s="16"/>
       <c r="I64" s="50"/>
     </row>
-    <row r="65" spans="1:1025">
+    <row r="65" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C65" s="13">
         <v>3</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F65" s="67">
         <v>5.3124210000000003E-5</v>
@@ -9638,21 +9636,21 @@
       <c r="H65" s="16"/>
       <c r="I65" s="50"/>
     </row>
-    <row r="66" spans="1:1025">
+    <row r="66" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C66" s="13">
         <v>3</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F66" s="67">
         <v>-9.5700000000000003E-8</v>
@@ -9661,21 +9659,21 @@
       <c r="H66" s="16"/>
       <c r="I66" s="50"/>
     </row>
-    <row r="67" spans="1:1025">
+    <row r="67" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C67" s="13">
         <v>3</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F67" s="67">
         <v>3.2499999999999998E-6</v>
@@ -9684,7 +9682,7 @@
       <c r="H67" s="16"/>
       <c r="I67" s="50"/>
     </row>
-    <row r="68" spans="1:1025">
+    <row r="68" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -9693,12 +9691,12 @@
       <c r="F68" s="44"/>
       <c r="G68"/>
     </row>
-    <row r="69" spans="1:1025">
+    <row r="69" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C69" s="13">
         <v>3</v>
@@ -9707,19 +9705,19 @@
         <v>136</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F69" s="51">
         <v>44.6584</v>
       </c>
       <c r="G69"/>
     </row>
-    <row r="70" spans="1:1025">
+    <row r="70" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C70" s="13">
         <v>3</v>
@@ -9728,19 +9726,19 @@
         <v>136</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F70" s="51">
         <v>-124.09538000000001</v>
       </c>
       <c r="G70"/>
     </row>
-    <row r="71" spans="1:1025">
+    <row r="71" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C71" s="13">
         <v>3</v>
@@ -9749,10 +9747,10 @@
         <v>136</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F71" s="51" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G71"/>
       <c r="H71" s="16"/>
@@ -9769,12 +9767,12 @@
       <c r="S71" s="16"/>
       <c r="T71" s="16"/>
     </row>
-    <row r="72" spans="1:1025">
+    <row r="72" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C72" s="16">
         <v>3</v>
@@ -9783,13 +9781,13 @@
         <v>136</v>
       </c>
       <c r="E72" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F72" s="29" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G72" s="29" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H72" s="16"/>
       <c r="I72" s="16"/>
@@ -10810,7 +10808,7 @@
       <c r="AMJ72" s="16"/>
       <c r="AMK72" s="16"/>
     </row>
-    <row r="73" spans="1:1025">
+    <row r="73" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -10819,12 +10817,12 @@
       <c r="F73" s="31"/>
       <c r="G73"/>
     </row>
-    <row r="74" spans="1:1025">
+    <row r="74" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C74" s="13">
         <v>3</v>
@@ -10833,19 +10831,19 @@
         <v>995</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F74" s="51">
         <v>50</v>
       </c>
       <c r="G74"/>
     </row>
-    <row r="75" spans="1:1025">
+    <row r="75" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C75" s="13">
         <v>3</v>
@@ -10854,19 +10852,19 @@
         <v>995</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F75" s="49">
         <v>1.7940000000000001E-6</v>
       </c>
       <c r="G75"/>
     </row>
-    <row r="76" spans="1:1025">
+    <row r="76" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C76" s="13">
         <v>3</v>
@@ -10875,19 +10873,19 @@
         <v>995</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F76" s="63">
         <v>48</v>
       </c>
       <c r="G76"/>
     </row>
-    <row r="77" spans="1:1025">
+    <row r="77" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C77" s="13">
         <v>3</v>
@@ -10896,19 +10894,19 @@
         <v>995</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F77" s="63">
         <v>1.17E-2</v>
       </c>
       <c r="G77"/>
     </row>
-    <row r="78" spans="1:1025">
+    <row r="78" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C78" s="13">
         <v>3</v>
@@ -10917,19 +10915,19 @@
         <v>995</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F78" s="51">
         <v>44</v>
       </c>
       <c r="G78"/>
     </row>
-    <row r="79" spans="1:1025">
+    <row r="79" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C79" s="13">
         <v>3</v>
@@ -10938,19 +10936,19 @@
         <v>995</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F79" s="51">
         <v>8.5699999999999998E-2</v>
       </c>
       <c r="G79"/>
     </row>
-    <row r="80" spans="1:1025">
+    <row r="80" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C80" s="13">
         <v>3</v>
@@ -10959,21 +10957,21 @@
         <v>995</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F80" s="51">
         <v>124</v>
       </c>
       <c r="G80" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="81" spans="1:1024">
+    <row r="81" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C81" s="13">
         <v>3</v>
@@ -10982,21 +10980,21 @@
         <v>995</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F81" s="51">
         <v>700</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:1024">
+    <row r="82" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C82" s="13">
         <v>3</v>
@@ -11005,21 +11003,21 @@
         <v>995</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F82" s="51">
         <v>1.0760000000000001</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="83" spans="1:1024">
+    <row r="83" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C83" s="13">
         <v>3</v>
@@ -11028,16 +11026,16 @@
         <v>995</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F83" s="51">
         <v>3.9E-2</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:1024">
+    <row r="84" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -11046,12 +11044,12 @@
       <c r="F84" s="44"/>
       <c r="G84"/>
     </row>
-    <row r="85" spans="1:1024">
+    <row r="85" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C85" s="13">
         <v>3</v>
@@ -11060,23 +11058,23 @@
         <v>264</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F85" s="64">
         <v>217</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H85"/>
       <c r="I85"/>
     </row>
-    <row r="86" spans="1:1024">
+    <row r="86" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C86" s="13">
         <v>3</v>
@@ -11085,23 +11083,23 @@
         <v>264</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F86" s="64">
         <v>240</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H86"/>
       <c r="I86"/>
     </row>
-    <row r="87" spans="1:1024">
+    <row r="87" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C87" s="13">
         <v>3</v>
@@ -11110,7 +11108,7 @@
         <v>264</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F87" s="64">
         <v>20.07</v>
@@ -11119,12 +11117,12 @@
       <c r="H87"/>
       <c r="I87"/>
     </row>
-    <row r="88" spans="1:1024">
+    <row r="88" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C88" s="13">
         <v>3</v>
@@ -11133,21 +11131,21 @@
         <v>264</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F88" s="64" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G88"/>
       <c r="H88"/>
       <c r="I88"/>
     </row>
-    <row r="89" spans="1:1024">
+    <row r="89" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C89" s="13">
         <v>3</v>
@@ -11156,21 +11154,21 @@
         <v>264</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F89" s="64" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G89"/>
       <c r="H89"/>
       <c r="I89"/>
     </row>
-    <row r="90" spans="1:1024">
+    <row r="90" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C90" s="13">
         <v>3</v>
@@ -11179,21 +11177,21 @@
         <v>264</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F90" s="64" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G90"/>
       <c r="H90"/>
       <c r="I90"/>
     </row>
-    <row r="91" spans="1:1024">
+    <row r="91" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C91" s="13">
         <v>3</v>
@@ -11202,16 +11200,16 @@
         <v>264</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F91" s="64" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G91"/>
       <c r="H91"/>
       <c r="I91"/>
     </row>
-    <row r="92" spans="1:1024">
+    <row r="92" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -11220,12 +11218,12 @@
       <c r="F92" s="44"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:1024" ht="15" customHeight="1">
+    <row r="93" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C93" s="13">
         <v>3</v>
@@ -11234,10 +11232,10 @@
         <v>214</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F93" s="65" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G93"/>
       <c r="H93"/>
@@ -12258,12 +12256,12 @@
       <c r="AMI93"/>
       <c r="AMJ93"/>
     </row>
-    <row r="94" spans="1:1024">
+    <row r="94" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C94" s="13">
         <v>3</v>
@@ -12272,10 +12270,10 @@
         <v>214</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F94" s="65" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G94"/>
       <c r="H94"/>
@@ -13296,12 +13294,12 @@
       <c r="AMI94"/>
       <c r="AMJ94"/>
     </row>
-    <row r="95" spans="1:1024">
+    <row r="95" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C95" s="13">
         <v>3</v>
@@ -13310,7 +13308,7 @@
         <v>214</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F95" s="65">
         <v>16.399999999999999</v>
@@ -14334,12 +14332,12 @@
       <c r="AMI95"/>
       <c r="AMJ95"/>
     </row>
-    <row r="96" spans="1:1024">
+    <row r="96" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C96" s="13">
         <v>3</v>
@@ -14348,10 +14346,10 @@
         <v>214</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F96" s="65" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
@@ -15372,12 +15370,12 @@
       <c r="AMI96"/>
       <c r="AMJ96"/>
     </row>
-    <row r="97" spans="1:1025">
+    <row r="97" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C97" s="13">
         <v>3</v>
@@ -15386,10 +15384,10 @@
         <v>214</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F97" s="65" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G97"/>
       <c r="H97"/>
@@ -16410,12 +16408,12 @@
       <c r="AMI97"/>
       <c r="AMJ97"/>
     </row>
-    <row r="98" spans="1:1025">
+    <row r="98" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C98" s="13">
         <v>3</v>
@@ -16424,10 +16422,10 @@
         <v>214</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F98" s="65" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G98"/>
       <c r="H98"/>
@@ -17448,12 +17446,12 @@
       <c r="AMI98"/>
       <c r="AMJ98"/>
     </row>
-    <row r="99" spans="1:1025">
+    <row r="99" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C99" s="13">
         <v>3</v>
@@ -17462,10 +17460,10 @@
         <v>214</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F99" s="51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G99"/>
       <c r="H99"/>
@@ -18486,12 +18484,12 @@
       <c r="AMI99"/>
       <c r="AMJ99"/>
     </row>
-    <row r="100" spans="1:1025" s="17" customFormat="1">
+    <row r="100" spans="1:1025" s="17" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A100" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C100" s="17">
         <v>3</v>
@@ -18500,13 +18498,13 @@
         <v>214</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F100" s="66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
-    <row r="101" spans="1:1025">
+    <row r="101" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -18515,21 +18513,21 @@
       <c r="F101" s="44"/>
       <c r="G101"/>
     </row>
-    <row r="102" spans="1:1025">
+    <row r="102" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C102" s="13">
         <v>3</v>
       </c>
       <c r="D102" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F102" s="51">
         <v>-9.5600000000000004E-2</v>
@@ -18537,21 +18535,21 @@
       <c r="G102" s="45"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:1025">
+    <row r="103" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="13">
         <v>3</v>
       </c>
       <c r="D103" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F103" s="51">
         <v>1.2159</v>
@@ -18559,21 +18557,21 @@
       <c r="G103" s="45"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:1025">
+    <row r="104" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C104" s="13">
         <v>3</v>
       </c>
       <c r="D104" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F104" s="51">
         <v>-2.2898999999999998</v>
@@ -18581,21 +18579,21 @@
       <c r="G104" s="45"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:1025">
+    <row r="105" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C105" s="13">
         <v>3</v>
       </c>
       <c r="D105" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F105" s="51">
         <v>14.6716</v>
@@ -18603,69 +18601,69 @@
       <c r="G105" s="45"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:1025">
+    <row r="106" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C106" s="13">
         <v>3</v>
       </c>
       <c r="D106" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F106" s="45">
         <v>19706</v>
       </c>
       <c r="G106" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AMK106"/>
     </row>
-    <row r="107" spans="1:1025">
+    <row r="107" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C107" s="13">
         <v>3</v>
       </c>
       <c r="D107" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F107" s="45">
         <v>34</v>
       </c>
       <c r="G107" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AMK107"/>
     </row>
-    <row r="108" spans="1:1025">
+    <row r="108" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C108" s="13">
         <v>3</v>
       </c>
       <c r="D108" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F108" s="45">
         <v>3073</v>
@@ -18673,21 +18671,21 @@
       <c r="G108" s="22"/>
       <c r="AMK108"/>
     </row>
-    <row r="109" spans="1:1025">
+    <row r="109" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C109" s="13">
         <v>3</v>
       </c>
       <c r="D109" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F109" s="45">
         <v>44327</v>
@@ -18695,7 +18693,7 @@
       <c r="G109" s="23"/>
       <c r="AMK109"/>
     </row>
-    <row r="110" spans="1:1025">
+    <row r="110" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -18704,21 +18702,21 @@
       <c r="F110" s="44"/>
       <c r="G110"/>
     </row>
-    <row r="111" spans="1:1025">
+    <row r="111" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C111" s="13">
         <v>3</v>
       </c>
       <c r="D111" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F111" s="51">
         <v>17533</v>
@@ -19741,21 +19739,21 @@
       <c r="AMI111"/>
       <c r="AMJ111"/>
     </row>
-    <row r="112" spans="1:1025">
+    <row r="112" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C112" s="13">
         <v>3</v>
       </c>
       <c r="D112" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F112" s="51">
         <v>101</v>
@@ -20778,21 +20776,21 @@
       <c r="AMI112"/>
       <c r="AMJ112"/>
     </row>
-    <row r="113" spans="1:1024">
+    <row r="113" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C113" s="13">
         <v>3</v>
       </c>
       <c r="D113" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F113" s="51">
         <v>2229</v>
@@ -21815,21 +21813,21 @@
       <c r="AMI113"/>
       <c r="AMJ113"/>
     </row>
-    <row r="114" spans="1:1024">
+    <row r="114" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C114" s="13">
         <v>3</v>
       </c>
       <c r="D114" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F114" s="51">
         <v>38502</v>
@@ -22852,21 +22850,21 @@
       <c r="AMI114"/>
       <c r="AMJ114"/>
     </row>
-    <row r="115" spans="1:1024">
+    <row r="115" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C115" s="13">
         <v>3</v>
       </c>
       <c r="D115" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F115" s="34">
         <v>0</v>
@@ -23890,21 +23888,21 @@
       <c r="AMI115"/>
       <c r="AMJ115"/>
     </row>
-    <row r="116" spans="1:1024">
+    <row r="116" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C116" s="13">
         <v>3</v>
       </c>
       <c r="D116" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F116" s="34">
         <v>1</v>
@@ -24928,27 +24926,27 @@
       <c r="AMI116"/>
       <c r="AMJ116"/>
     </row>
-    <row r="117" spans="1:1024">
+    <row r="117" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A117" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C117" s="20">
         <v>3</v>
       </c>
       <c r="D117" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E117" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F117" s="32">
         <v>35</v>
       </c>
       <c r="G117" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H117"/>
       <c r="I117"/>
@@ -25968,7 +25966,7 @@
       <c r="AMI117"/>
       <c r="AMJ117"/>
     </row>
-    <row r="118" spans="1:1024">
+    <row r="118" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -26994,12 +26992,12 @@
       <c r="AMI118"/>
       <c r="AMJ118"/>
     </row>
-    <row r="119" spans="1:1024">
+    <row r="119" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C119" s="13">
         <v>3</v>
@@ -27008,19 +27006,19 @@
         <v>231</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F119" s="62" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G119"/>
     </row>
-    <row r="120" spans="1:1024">
+    <row r="120" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C120" s="13">
         <v>3</v>
@@ -27029,19 +27027,19 @@
         <v>231</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F120" s="62" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G120"/>
     </row>
-    <row r="121" spans="1:1024">
+    <row r="121" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C121" s="13">
         <v>3</v>
@@ -27050,14 +27048,14 @@
         <v>231</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F121" s="62" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G121"/>
     </row>
-    <row r="122" spans="1:1024">
+    <row r="122" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -27066,12 +27064,12 @@
       <c r="F122" s="44"/>
       <c r="G122"/>
     </row>
-    <row r="123" spans="1:1024">
+    <row r="123" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C123" s="13">
         <v>3</v>
@@ -27080,7 +27078,7 @@
         <v>8535</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F123" s="51">
         <v>44.6584</v>
@@ -28104,12 +28102,12 @@
       <c r="AMI123"/>
       <c r="AMJ123"/>
     </row>
-    <row r="124" spans="1:1024">
+    <row r="124" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C124" s="13">
         <v>3</v>
@@ -28118,7 +28116,7 @@
         <v>8535</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F124" s="51">
         <v>-124.09538000000001</v>
@@ -29142,7 +29140,7 @@
       <c r="AMI124"/>
       <c r="AMJ124"/>
     </row>
-    <row r="125" spans="1:1024">
+    <row r="125" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -30168,12 +30166,12 @@
       <c r="AMI125"/>
       <c r="AMJ125"/>
     </row>
-    <row r="126" spans="1:1024">
+    <row r="126" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C126" s="13">
         <v>3</v>
@@ -30182,21 +30180,21 @@
         <v>21524</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F126" s="32">
         <v>25000</v>
       </c>
       <c r="G126" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
-    <row r="127" spans="1:1024">
+    <row r="127" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C127" s="13">
         <v>3</v>
@@ -30205,19 +30203,19 @@
         <v>21524</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F127" s="51">
         <v>44.6584</v>
       </c>
       <c r="G127"/>
     </row>
-    <row r="128" spans="1:1024">
+    <row r="128" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C128" s="13">
         <v>3</v>
@@ -30226,19 +30224,19 @@
         <v>21524</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F128" s="51">
         <v>-124.09538000000001</v>
       </c>
       <c r="G128"/>
     </row>
-    <row r="129" spans="1:1025">
+    <row r="129" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C129" s="13">
         <v>3</v>
@@ -30247,19 +30245,19 @@
         <v>21524</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F129" s="51">
         <v>0.45</v>
       </c>
       <c r="G129"/>
     </row>
-    <row r="130" spans="1:1025">
+    <row r="130" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C130" s="13">
         <v>3</v>
@@ -30268,19 +30266,19 @@
         <v>21524</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F130" s="51">
         <v>0.45</v>
       </c>
       <c r="G130"/>
     </row>
-    <row r="131" spans="1:1025">
+    <row r="131" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C131" s="13">
         <v>3</v>
@@ -30289,19 +30287,19 @@
         <v>21524</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F131" s="51">
         <v>0.45</v>
       </c>
       <c r="G131"/>
     </row>
-    <row r="132" spans="1:1025">
+    <row r="132" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C132" s="13">
         <v>3</v>
@@ -30310,14 +30308,14 @@
         <v>21524</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F132" s="51">
         <v>0.45</v>
       </c>
       <c r="G132"/>
     </row>
-    <row r="133" spans="1:1025">
+    <row r="133" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -30326,23 +30324,23 @@
       <c r="F133" s="44"/>
       <c r="G133"/>
     </row>
-    <row r="134" spans="1:1025">
+    <row r="134" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A134" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B134" s="40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C134" s="25">
         <v>3</v>
       </c>
       <c r="D134" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E134" s="25"/>
       <c r="F134" s="29"/>
       <c r="G134" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H134" s="16"/>
       <c r="I134" s="16"/>
@@ -31363,7 +31361,7 @@
       <c r="AMJ134" s="16"/>
       <c r="AMK134" s="16"/>
     </row>
-    <row r="135" spans="1:1025">
+    <row r="135" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A135" s="25"/>
       <c r="B135" s="25"/>
       <c r="C135" s="25"/>
@@ -32390,511 +32388,511 @@
       <c r="AMJ135" s="16"/>
       <c r="AMK135" s="16"/>
     </row>
-    <row r="136" spans="1:1025">
+    <row r="136" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C136" s="13">
         <v>3</v>
       </c>
       <c r="D136" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F136" s="51">
         <v>44.6584</v>
       </c>
       <c r="G136"/>
     </row>
-    <row r="137" spans="1:1025">
+    <row r="137" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C137" s="13">
         <v>3</v>
       </c>
       <c r="D137" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F137" s="51">
         <v>-124.09538000000001</v>
       </c>
       <c r="G137"/>
     </row>
-    <row r="138" spans="1:1025">
+    <row r="138" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C138" s="13">
         <v>3</v>
       </c>
       <c r="D138" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F138" s="51">
         <v>1.24565442E-3</v>
       </c>
       <c r="G138"/>
     </row>
-    <row r="139" spans="1:1025">
+    <row r="139" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C139" s="13">
         <v>3</v>
       </c>
       <c r="D139" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F139" s="51">
         <v>2.7448245400000002E-4</v>
       </c>
       <c r="G139"/>
     </row>
-    <row r="140" spans="1:1025">
+    <row r="140" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C140" s="13">
         <v>3</v>
       </c>
       <c r="D140" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F140" s="51">
         <v>-1.0516132700000001E-6</v>
       </c>
       <c r="G140"/>
     </row>
-    <row r="141" spans="1:1025">
+    <row r="141" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C141" s="13">
         <v>3</v>
       </c>
       <c r="D141" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F141" s="51">
         <v>1.83649174E-7</v>
       </c>
       <c r="G141"/>
     </row>
-    <row r="142" spans="1:1025">
+    <row r="142" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C142" s="13">
         <v>3</v>
       </c>
       <c r="D142" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F142" s="51">
         <v>-66.258320999999995</v>
       </c>
       <c r="G142"/>
     </row>
-    <row r="143" spans="1:1025">
+    <row r="143" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C143" s="13">
         <v>3</v>
       </c>
       <c r="D143" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F143" s="51">
         <v>53.070829699999997</v>
       </c>
       <c r="G143"/>
     </row>
-    <row r="144" spans="1:1025">
+    <row r="144" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C144" s="13">
         <v>3</v>
       </c>
       <c r="D144" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F144" s="51">
         <v>-0.55845462300000004</v>
       </c>
       <c r="G144"/>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C145" s="13">
         <v>3</v>
       </c>
       <c r="D145" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F145" s="51">
         <v>525130.68999999994</v>
       </c>
       <c r="G145"/>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C146" s="13">
         <v>3</v>
       </c>
       <c r="D146" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F146" s="51">
         <v>6.0112117600000001</v>
       </c>
       <c r="G146"/>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C147" s="13">
         <v>3</v>
       </c>
       <c r="D147" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F147" s="51">
         <v>-0.14411900599999999</v>
       </c>
       <c r="G147"/>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C148" s="13">
         <v>3</v>
       </c>
       <c r="D148" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F148" s="51">
         <v>25.07525</v>
       </c>
       <c r="G148"/>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C149" s="13">
         <v>3</v>
       </c>
       <c r="D149" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F149" s="51">
         <v>-9.5E-4</v>
       </c>
       <c r="G149"/>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C150" s="13">
         <v>3</v>
       </c>
       <c r="D150" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F150" s="51">
         <v>0</v>
       </c>
       <c r="G150"/>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C151" s="13">
         <v>3</v>
       </c>
       <c r="D151" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F151" s="51">
         <v>3.3198617700000002E-2</v>
       </c>
       <c r="G151"/>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C152" s="13">
         <v>3</v>
       </c>
       <c r="D152" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F152" s="51">
         <v>4.8887760099999996E-4</v>
       </c>
       <c r="G152"/>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C153" s="13">
         <v>3</v>
       </c>
       <c r="D153" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F153" s="51">
         <v>-6.0428733500000004E-12</v>
       </c>
       <c r="G153"/>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C154" s="13">
         <v>3</v>
       </c>
       <c r="D154" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F154" s="51">
         <v>-0.99282949899999995</v>
       </c>
       <c r="G154"/>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C155" s="13">
         <v>3</v>
       </c>
       <c r="D155" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F155" s="51">
         <v>0.151062855</v>
       </c>
       <c r="G155"/>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C156" s="13">
         <v>3</v>
       </c>
       <c r="D156" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F156" s="51">
         <v>-9.48471696E-5</v>
       </c>
       <c r="G156"/>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C157" s="13">
         <v>3</v>
       </c>
       <c r="D157" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F157" s="51">
         <v>2.9097712499999998E-5</v>
       </c>
       <c r="G157"/>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C158" s="13">
         <v>3</v>
       </c>
       <c r="D158" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F158" s="51">
         <v>-9.5700000000000003E-8</v>
       </c>
       <c r="G158"/>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C159" s="13">
         <v>3</v>
       </c>
       <c r="D159" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F159" s="51">
         <v>3.2499999999999998E-6</v>
       </c>
       <c r="G159"/>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160"/>
       <c r="B160"/>
       <c r="C160"/>
@@ -32903,12 +32901,12 @@
       <c r="F160" s="44"/>
       <c r="G160"/>
     </row>
-    <row r="161" spans="1:1025">
+    <row r="161" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C161" s="13">
         <v>3</v>
@@ -32917,19 +32915,19 @@
         <v>315</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F161" s="51">
         <v>44.6584</v>
       </c>
       <c r="G161"/>
     </row>
-    <row r="162" spans="1:1025">
+    <row r="162" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C162" s="13">
         <v>3</v>
@@ -32938,19 +32936,19 @@
         <v>315</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F162" s="51">
         <v>-124.09538000000001</v>
       </c>
       <c r="G162"/>
     </row>
-    <row r="163" spans="1:1025">
+    <row r="163" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A163" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C163" s="13">
         <v>3</v>
@@ -32959,19 +32957,19 @@
         <v>315</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F163" s="51" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G163"/>
     </row>
-    <row r="164" spans="1:1025">
+    <row r="164" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A164" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B164" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C164" s="16">
         <v>3</v>
@@ -32980,13 +32978,13 @@
         <v>315</v>
       </c>
       <c r="E164" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="F164" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="G164" s="29" t="s">
         <v>150</v>
-      </c>
-      <c r="F164" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="G164" s="29" t="s">
-        <v>151</v>
       </c>
       <c r="H164" s="16"/>
       <c r="I164" s="16"/>
@@ -34007,7 +34005,7 @@
       <c r="AMJ164" s="16"/>
       <c r="AMK164" s="16"/>
     </row>
-    <row r="165" spans="1:1025">
+    <row r="165" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A165"/>
       <c r="B165"/>
       <c r="C165"/>
@@ -34016,12 +34014,12 @@
       <c r="F165" s="44"/>
       <c r="G165"/>
     </row>
-    <row r="166" spans="1:1025">
+    <row r="166" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C166" s="13">
         <v>3</v>
@@ -34030,19 +34028,19 @@
         <v>149</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F166" s="51" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G166"/>
     </row>
-    <row r="167" spans="1:1025">
+    <row r="167" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C167" s="13">
         <v>3</v>
@@ -34051,19 +34049,19 @@
         <v>149</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F167" s="51" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G167"/>
     </row>
-    <row r="168" spans="1:1025">
+    <row r="168" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A168" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C168" s="13">
         <v>3</v>
@@ -34072,19 +34070,19 @@
         <v>149</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F168" s="51">
         <v>20.6</v>
       </c>
       <c r="G168"/>
     </row>
-    <row r="169" spans="1:1025">
+    <row r="169" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A169" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C169" s="13">
         <v>3</v>
@@ -34093,19 +34091,19 @@
         <v>149</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F169" s="51" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G169"/>
     </row>
-    <row r="170" spans="1:1025">
+    <row r="170" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A170" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C170" s="13">
         <v>3</v>
@@ -34114,19 +34112,19 @@
         <v>149</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F170" s="51" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G170"/>
     </row>
-    <row r="171" spans="1:1025">
+    <row r="171" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A171" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C171" s="13">
         <v>3</v>
@@ -34135,19 +34133,19 @@
         <v>149</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F171" s="51" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G171"/>
     </row>
-    <row r="172" spans="1:1025">
+    <row r="172" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A172" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C172" s="13">
         <v>3</v>
@@ -34156,19 +34154,19 @@
         <v>149</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F172" s="51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G172"/>
     </row>
-    <row r="173" spans="1:1025">
+    <row r="173" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A173" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C173" s="13">
         <v>3</v>
@@ -34177,14 +34175,14 @@
         <v>149</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F173" s="51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G173"/>
     </row>
-    <row r="174" spans="1:1025">
+    <row r="174" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A174"/>
       <c r="B174"/>
       <c r="C174"/>
@@ -34193,167 +34191,167 @@
       <c r="F174" s="31"/>
       <c r="G174"/>
     </row>
-    <row r="175" spans="1:1025">
+    <row r="175" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A175" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C175" s="13">
         <v>3</v>
       </c>
       <c r="D175" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F175" s="51">
         <v>-2.6800000000000001E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:1025">
+    <row r="176" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A176" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C176" s="13">
         <v>3</v>
       </c>
       <c r="D176" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F176" s="51">
         <v>0.95989999999999998</v>
       </c>
     </row>
-    <row r="177" spans="1:1024">
+    <row r="177" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A177" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C177" s="13">
         <v>3</v>
       </c>
       <c r="D177" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F177" s="51">
         <v>-1.9703999999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:1024">
+    <row r="178" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A178" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C178" s="13">
         <v>3</v>
       </c>
       <c r="D178" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F178" s="51">
         <v>16.39</v>
       </c>
     </row>
-    <row r="179" spans="1:1024">
+    <row r="179" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A179" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C179" s="13">
         <v>3</v>
       </c>
       <c r="D179" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F179" s="51">
         <v>19706</v>
       </c>
     </row>
-    <row r="180" spans="1:1024">
+    <row r="180" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A180" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C180" s="13">
         <v>3</v>
       </c>
       <c r="D180" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F180" s="51">
         <v>34</v>
       </c>
     </row>
-    <row r="181" spans="1:1024">
+    <row r="181" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A181" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C181" s="13">
         <v>3</v>
       </c>
       <c r="D181" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F181" s="51">
         <v>3073</v>
       </c>
     </row>
-    <row r="182" spans="1:1024">
+    <row r="182" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A182" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C182" s="13">
         <v>3</v>
       </c>
       <c r="D182" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F182" s="51">
         <v>44327</v>
       </c>
     </row>
-    <row r="183" spans="1:1024">
+    <row r="183" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A183"/>
       <c r="B183"/>
       <c r="C183"/>
@@ -34362,21 +34360,21 @@
       <c r="F183" s="51"/>
       <c r="G183"/>
     </row>
-    <row r="184" spans="1:1024">
+    <row r="184" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A184" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C184" s="13">
         <v>3</v>
       </c>
       <c r="D184" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F184" s="51">
         <v>17533</v>
@@ -35399,21 +35397,21 @@
       <c r="AMI184"/>
       <c r="AMJ184"/>
     </row>
-    <row r="185" spans="1:1024">
+    <row r="185" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A185" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C185" s="13">
         <v>3</v>
       </c>
       <c r="D185" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F185" s="51">
         <v>101</v>
@@ -36436,21 +36434,21 @@
       <c r="AMI185"/>
       <c r="AMJ185"/>
     </row>
-    <row r="186" spans="1:1024">
+    <row r="186" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A186" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C186" s="13">
         <v>3</v>
       </c>
       <c r="D186" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F186" s="51">
         <v>2229</v>
@@ -37473,21 +37471,21 @@
       <c r="AMI186"/>
       <c r="AMJ186"/>
     </row>
-    <row r="187" spans="1:1024">
+    <row r="187" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A187" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C187" s="13">
         <v>3</v>
       </c>
       <c r="D187" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F187" s="51">
         <v>38502</v>
@@ -38510,21 +38508,21 @@
       <c r="AMI187"/>
       <c r="AMJ187"/>
     </row>
-    <row r="188" spans="1:1024">
+    <row r="188" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A188" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C188" s="13">
         <v>3</v>
       </c>
       <c r="D188" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F188" s="34">
         <v>0</v>
@@ -39548,21 +39546,21 @@
       <c r="AMI188"/>
       <c r="AMJ188"/>
     </row>
-    <row r="189" spans="1:1024">
+    <row r="189" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A189" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C189" s="13">
         <v>3</v>
       </c>
       <c r="D189" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F189" s="34">
         <v>1</v>
@@ -40586,27 +40584,27 @@
       <c r="AMI189"/>
       <c r="AMJ189"/>
     </row>
-    <row r="190" spans="1:1024">
+    <row r="190" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A190" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B190" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C190" s="20">
         <v>3</v>
       </c>
       <c r="D190" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E190" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F190" s="32">
         <v>35</v>
       </c>
       <c r="G190" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H190"/>
       <c r="I190"/>
@@ -41626,7 +41624,7 @@
       <c r="AMI190"/>
       <c r="AMJ190"/>
     </row>
-    <row r="191" spans="1:1024">
+    <row r="191" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A191"/>
       <c r="B191"/>
       <c r="C191"/>
@@ -42652,12 +42650,12 @@
       <c r="AMI191"/>
       <c r="AMJ191"/>
     </row>
-    <row r="192" spans="1:1024">
+    <row r="192" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A192" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C192" s="13">
         <v>3</v>
@@ -42666,21 +42664,21 @@
         <v>1383</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F192" s="60">
         <v>601.7722</v>
       </c>
       <c r="G192" s="38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C193" s="13">
         <v>3</v>
@@ -42689,21 +42687,21 @@
         <v>1383</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F193" s="60">
         <v>2.8800530000000002</v>
       </c>
       <c r="G193" s="38" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B194" s="13" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
-      <c r="A194" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B194" s="13" t="s">
-        <v>154</v>
       </c>
       <c r="C194" s="13">
         <v>3</v>
@@ -42712,19 +42710,19 @@
         <v>1383</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F194" s="60">
         <v>-1095.03</v>
       </c>
       <c r="G194" s="39"/>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C195" s="13">
         <v>3</v>
@@ -42733,19 +42731,19 @@
         <v>1383</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F195" s="60">
         <v>2.7113000000000002E-2</v>
       </c>
       <c r="G195" s="39"/>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C196" s="13">
         <v>3</v>
@@ -42754,19 +42752,19 @@
         <v>1383</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F196" s="60">
         <v>0</v>
       </c>
       <c r="G196"/>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C197" s="13">
         <v>3</v>
@@ -42775,21 +42773,21 @@
         <v>1383</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F197" s="60">
         <v>0</v>
       </c>
       <c r="G197" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C198" s="13">
         <v>3</v>
@@ -42798,21 +42796,21 @@
         <v>1383</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F198" s="60">
         <v>-0.223</v>
       </c>
       <c r="G198" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B199" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C199" s="13">
         <v>3</v>
@@ -42821,21 +42819,21 @@
         <v>1383</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F199" s="60">
         <v>1</v>
       </c>
       <c r="G199" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C200" s="13">
         <v>3</v>
@@ -42844,19 +42842,19 @@
         <v>1383</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F200" s="60">
         <v>27.755389999999998</v>
       </c>
       <c r="G200"/>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C201" s="13">
         <v>3</v>
@@ -42865,19 +42863,19 @@
         <v>1383</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F201" s="60">
         <v>0.52579799999999999</v>
       </c>
       <c r="G201"/>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C202" s="13">
         <v>3</v>
@@ -42886,19 +42884,19 @@
         <v>1383</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F202" s="60">
         <v>19.667739999999998</v>
       </c>
       <c r="G202"/>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C203" s="13">
         <v>3</v>
@@ -42907,19 +42905,19 @@
         <v>1383</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F203" s="60">
         <v>34.446179999999998</v>
       </c>
       <c r="G203"/>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C204" s="13">
         <v>3</v>
@@ -42928,19 +42926,19 @@
         <v>1383</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F204" s="60">
         <v>5.7845329999999997</v>
       </c>
       <c r="G204"/>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C205" s="13">
         <v>3</v>
@@ -42949,19 +42947,19 @@
         <v>1383</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F205" s="60">
         <v>-3990.6190000000001</v>
       </c>
       <c r="G205"/>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C206" s="13">
         <v>3</v>
@@ -42970,19 +42968,19 @@
         <v>1383</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F206" s="60">
         <v>-11590.4</v>
       </c>
       <c r="G206"/>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C207" s="13">
         <v>3</v>
@@ -42991,19 +42989,19 @@
         <v>1383</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F207" s="60">
         <v>0</v>
       </c>
       <c r="G207"/>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C208" s="13">
         <v>3</v>
@@ -43012,19 +43010,19 @@
         <v>1383</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F208" s="60">
         <v>8388.6</v>
       </c>
       <c r="G208"/>
     </row>
-    <row r="209" spans="1:1025">
+    <row r="209" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A209" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C209" s="13">
         <v>3</v>
@@ -43033,14 +43031,14 @@
         <v>1383</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F209" s="60">
         <v>125829.1</v>
       </c>
       <c r="G209"/>
     </row>
-    <row r="210" spans="1:1025">
+    <row r="210" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A210"/>
       <c r="B210"/>
       <c r="C210"/>
@@ -43049,12 +43047,12 @@
       <c r="F210" s="61"/>
       <c r="G210"/>
     </row>
-    <row r="211" spans="1:1025">
+    <row r="211" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A211" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C211" s="13">
         <v>3</v>
@@ -43063,19 +43061,19 @@
         <v>8158</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F211" s="51">
         <v>44.6584</v>
       </c>
       <c r="G211"/>
     </row>
-    <row r="212" spans="1:1025">
+    <row r="212" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A212" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B212" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C212" s="13">
         <v>3</v>
@@ -43084,14 +43082,14 @@
         <v>8158</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F212" s="51">
         <v>-124.09538000000001</v>
       </c>
       <c r="G212"/>
     </row>
-    <row r="213" spans="1:1025">
+    <row r="213" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A213"/>
       <c r="B213"/>
       <c r="C213"/>
@@ -43100,12 +43098,12 @@
       <c r="F213" s="44"/>
       <c r="G213"/>
     </row>
-    <row r="214" spans="1:1025">
+    <row r="214" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A214" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B214" s="40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C214" s="25">
         <v>3</v>
@@ -43116,7 +43114,7 @@
       <c r="E214" s="24"/>
       <c r="F214" s="29"/>
       <c r="G214" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H214" s="16"/>
       <c r="I214" s="16"/>
@@ -44137,14 +44135,14 @@
       <c r="AMJ214" s="16"/>
       <c r="AMK214" s="16"/>
     </row>
-    <row r="215" spans="1:1025">
+    <row r="215" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A215"/>
       <c r="B215"/>
       <c r="C215"/>
       <c r="D215"/>
       <c r="E215" s="16"/>
     </row>
-    <row r="216" spans="1:1025">
+    <row r="216" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A216"/>
       <c r="B216"/>
       <c r="C216"/>
@@ -44152,14 +44150,14 @@
       <c r="E216" s="16"/>
       <c r="G216"/>
     </row>
-    <row r="217" spans="1:1025">
+    <row r="217" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A217"/>
       <c r="B217"/>
       <c r="C217"/>
       <c r="D217"/>
       <c r="E217" s="16"/>
     </row>
-    <row r="218" spans="1:1025">
+    <row r="218" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A218"/>
       <c r="B218"/>
       <c r="C218"/>
@@ -44167,61 +44165,61 @@
       <c r="E218" s="16"/>
       <c r="G218"/>
     </row>
-    <row r="219" spans="1:1025">
+    <row r="219" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A219" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C219" s="13">
         <v>3</v>
       </c>
       <c r="D219" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E219" s="16"/>
       <c r="G219" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:1025">
+    <row r="220" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A220" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C220" s="13">
         <v>3</v>
       </c>
       <c r="D220" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E220" s="16"/>
       <c r="G220" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="221" spans="1:1025">
+    <row r="221" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A221" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C221" s="13">
         <v>3</v>
       </c>
       <c r="D221" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E221" s="16"/>
       <c r="G221" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="222" spans="1:1025">
+    <row r="222" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A222"/>
       <c r="B222"/>
       <c r="C222"/>
@@ -44229,74 +44227,74 @@
       <c r="E222" s="16"/>
       <c r="G222"/>
     </row>
-    <row r="223" spans="1:1025">
+    <row r="223" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A223" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C223" s="13">
         <v>3</v>
       </c>
       <c r="D223" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E223" s="16"/>
       <c r="G223" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="224" spans="1:1025">
+    <row r="224" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A224" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C224" s="13">
         <v>3</v>
       </c>
       <c r="D224" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E224" s="16"/>
       <c r="G224" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C225" s="13">
         <v>3</v>
       </c>
       <c r="D225" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G225" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="G225" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7">
-      <c r="A226" s="13" t="s">
-        <v>141</v>
-      </c>
       <c r="B226" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C226" s="13">
         <v>3</v>
       </c>
       <c r="D226" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G226" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -44319,12 +44317,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="54"/>
+    <col min="1" max="16384" width="8.85546875" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="54">
         <v>-7.3966000000000004E-2</v>
       </c>
@@ -44443,7 +44441,7 @@
         <v>4.8176999999999998E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="54">
         <v>-6.1276999999999998E-2</v>
       </c>
@@ -44562,7 +44560,7 @@
         <v>3.6867999999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="54">
         <v>-4.7830999999999999E-2</v>
       </c>
@@ -44681,7 +44679,7 @@
         <v>2.6801999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="54">
         <v>-3.5496E-2</v>
       </c>
@@ -44800,7 +44798,7 @@
         <v>1.6670999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="54">
         <v>-2.5148E-2</v>
       </c>
@@ -44919,7 +44917,7 @@
         <v>1.0116999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="54">
         <v>-1.9942000000000001E-2</v>
       </c>
@@ -45038,7 +45036,7 @@
         <v>6.0359999999999997E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="54">
         <v>-1.6060000000000001E-2</v>
       </c>
@@ -45157,7 +45155,7 @@
         <v>3.5339999999999998E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="54">
         <v>-1.375E-2</v>
       </c>
@@ -45276,7 +45274,7 @@
         <v>2.274E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="54">
         <v>-1.3162999999999999E-2</v>
       </c>
@@ -45395,7 +45393,7 @@
         <v>1.193E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="54">
         <v>-1.1882999999999999E-2</v>
       </c>
@@ -45514,7 +45512,7 @@
         <v>6.6600000000000003E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="54">
         <v>-1.1197E-2</v>
       </c>
@@ -45633,7 +45631,7 @@
         <v>5.2599999999999999E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="54">
         <v>-1.0940999999999999E-2</v>
       </c>
@@ -45752,7 +45750,7 @@
         <v>9.1000000000000003E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="54">
         <v>-1.0465E-2</v>
       </c>
@@ -45871,7 +45869,7 @@
         <v>6.8999999999999997E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="54">
         <v>-9.724E-3</v>
       </c>
@@ -45990,7 +45988,7 @@
         <v>-8.7999999999999998E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="54">
         <v>-9.3410000000000003E-3</v>
       </c>
@@ -46109,7 +46107,7 @@
         <v>-2.3800000000000001E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="54">
         <v>-9.0109999999999999E-3</v>
       </c>
@@ -46228,7 +46226,7 @@
         <v>-3.7599999999999998E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="54">
         <v>-8.4989999999999996E-3</v>
       </c>
@@ -46347,7 +46345,7 @@
         <v>-3.8200000000000002E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="54">
         <v>-8.2500000000000004E-3</v>
       </c>
@@ -46466,7 +46464,7 @@
         <v>-3.6000000000000002E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="54">
         <v>-7.9740000000000002E-3</v>
       </c>
@@ -46585,7 +46583,7 @@
         <v>-4.0400000000000001E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="54">
         <v>-7.5770000000000004E-3</v>
       </c>
@@ -46704,7 +46702,7 @@
         <v>-3.6499999999999998E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="54">
         <v>-7.1260000000000004E-3</v>
       </c>
@@ -46823,7 +46821,7 @@
         <v>-3.6400000000000001E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="54">
         <v>-7.0949999999999997E-3</v>
       </c>
@@ -46942,7 +46940,7 @@
         <v>-2.3900000000000001E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="54">
         <v>-6.6779999999999999E-3</v>
       </c>
@@ -47061,7 +47059,7 @@
         <v>-2.23E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="54">
         <v>-6.5399999999999998E-3</v>
       </c>
@@ -47180,7 +47178,7 @@
         <v>-2.2100000000000001E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="54">
         <v>-5.9490000000000003E-3</v>
       </c>
@@ -47299,7 +47297,7 @@
         <v>-8.2999999999999998E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="54">
         <v>-6.0980000000000001E-3</v>
       </c>
@@ -47418,7 +47416,7 @@
         <v>-1.08E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="54">
         <v>-6.0289999999999996E-3</v>
       </c>
@@ -47537,7 +47535,7 @@
         <v>8.7999999999999998E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="54">
         <v>-5.8939999999999999E-3</v>
       </c>
@@ -47656,7 +47654,7 @@
         <v>5.5999999999999999E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="54">
         <v>-5.6769999999999998E-3</v>
       </c>
@@ -47775,7 +47773,7 @@
         <v>1.5899999999999999E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="54">
         <v>-5.3889999999999997E-3</v>
       </c>
@@ -47894,7 +47892,7 @@
         <v>3.1300000000000002E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="54">
         <v>-5.2849999999999998E-3</v>
       </c>
@@ -48013,7 +48011,7 @@
         <v>2.5599999999999999E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="54">
         <v>-5.2719999999999998E-3</v>
       </c>
@@ -48132,7 +48130,7 @@
         <v>2.7399999999999999E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="54">
         <v>-5.2350000000000001E-3</v>
       </c>
@@ -48251,7 +48249,7 @@
         <v>3.4600000000000001E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" s="54">
         <v>-5.2399999999999999E-3</v>
       </c>
@@ -48370,7 +48368,7 @@
         <v>3.1500000000000001E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" s="54">
         <v>-5.1770000000000002E-3</v>
       </c>
@@ -48489,7 +48487,7 @@
         <v>3.2499999999999999E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" s="54">
         <v>-5.1659999999999996E-3</v>
       </c>
@@ -48608,7 +48606,7 @@
         <v>2.8899999999999998E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="54">
         <v>-5.2589999999999998E-3</v>
       </c>
@@ -48727,7 +48725,7 @@
         <v>1.6799999999999999E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="54">
         <v>-5.0829999999999998E-3</v>
       </c>
@@ -48846,7 +48844,7 @@
         <v>1.73E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" s="54">
         <v>-5.0679999999999996E-3</v>
       </c>
@@ -48965,7 +48963,7 @@
         <v>5.8999999999999998E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" s="54">
         <v>-5.0980000000000001E-3</v>
       </c>
@@ -49084,7 +49082,7 @@
         <v>-6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" s="54">
         <v>-4.8739999999999999E-3</v>
       </c>
@@ -49203,7 +49201,7 @@
         <v>-4.6E-5</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" s="54">
         <v>-4.7349999999999996E-3</v>
       </c>
@@ -49322,7 +49320,7 @@
         <v>-1.95E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" s="54">
         <v>-4.8650000000000004E-3</v>
       </c>
@@ -49441,7 +49439,7 @@
         <v>-2.2800000000000001E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" s="54">
         <v>-5.0379999999999999E-3</v>
       </c>
@@ -49560,7 +49558,7 @@
         <v>-1.35E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" s="54">
         <v>-5.2209999999999999E-3</v>
       </c>
@@ -49679,7 +49677,7 @@
         <v>-3.4299999999999999E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" s="54">
         <v>-4.8710000000000003E-3</v>
       </c>
@@ -49798,7 +49796,7 @@
         <v>-3.1700000000000001E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" s="54">
         <v>-4.823E-3</v>
       </c>
@@ -49917,7 +49915,7 @@
         <v>-3.3599999999999998E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" s="54">
         <v>-4.7210000000000004E-3</v>
       </c>
@@ -50036,7 +50034,7 @@
         <v>-3.0400000000000002E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" s="54">
         <v>-4.8170000000000001E-3</v>
       </c>
@@ -50155,7 +50153,7 @@
         <v>-2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" s="54">
         <v>-4.7540000000000004E-3</v>
       </c>
@@ -50274,7 +50272,7 @@
         <v>-1.45E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51" s="54">
         <v>-4.7419999999999997E-3</v>
       </c>
@@ -50393,7 +50391,7 @@
         <v>-8.1000000000000004E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52" s="54">
         <v>-4.9059999999999998E-3</v>
       </c>
@@ -50512,7 +50510,7 @@
         <v>-3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" s="54">
         <v>-4.9760000000000004E-3</v>
       </c>
@@ -50631,7 +50629,7 @@
         <v>6.7000000000000002E-5</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54" s="54">
         <v>-4.9259999999999998E-3</v>
       </c>
@@ -50750,7 +50748,7 @@
         <v>1.66E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55" s="54">
         <v>-4.9439999999999996E-3</v>
       </c>
@@ -50869,7 +50867,7 @@
         <v>2.1900000000000001E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56" s="54">
         <v>-4.9659999999999999E-3</v>
       </c>
@@ -50988,7 +50986,7 @@
         <v>2.5399999999999999E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57" s="54">
         <v>-5.0819999999999997E-3</v>
       </c>
@@ -51107,7 +51105,7 @@
         <v>3.5799999999999997E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58" s="54">
         <v>-5.1710000000000002E-3</v>
       </c>
@@ -51226,7 +51224,7 @@
         <v>3.4499999999999998E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59" s="54">
         <v>-5.2129999999999998E-3</v>
       </c>
@@ -51345,7 +51343,7 @@
         <v>3.5799999999999997E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60" s="54">
         <v>-5.1770000000000002E-3</v>
       </c>
@@ -51464,7 +51462,7 @@
         <v>4.7600000000000002E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61" s="54">
         <v>-5.2480000000000001E-3</v>
       </c>
@@ -51583,7 +51581,7 @@
         <v>5.13E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62" s="54">
         <v>-5.2950000000000002E-3</v>
       </c>
@@ -51702,7 +51700,7 @@
         <v>5.5500000000000005E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63" s="54">
         <v>-5.2529999999999999E-3</v>
       </c>
@@ -51821,7 +51819,7 @@
         <v>6.0700000000000001E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64" s="54">
         <v>-5.1060000000000003E-3</v>
       </c>
@@ -51940,7 +51938,7 @@
         <v>6.5099999999999999E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A65" s="54">
         <v>-5.3569999999999998E-3</v>
       </c>
@@ -52059,7 +52057,7 @@
         <v>7.2499999999999995E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A66" s="54">
         <v>-5.5110000000000003E-3</v>
       </c>
@@ -52178,7 +52176,7 @@
         <v>7.6900000000000004E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A67" s="54">
         <v>-5.5100000000000001E-3</v>
       </c>
@@ -52297,7 +52295,7 @@
         <v>7.7700000000000002E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A68" s="54">
         <v>-5.5360000000000001E-3</v>
       </c>
@@ -52416,7 +52414,7 @@
         <v>8.2100000000000001E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A69" s="54">
         <v>-5.594E-3</v>
       </c>
@@ -52535,7 +52533,7 @@
         <v>8.2299999999999995E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A70" s="54">
         <v>-5.6350000000000003E-3</v>
       </c>
@@ -52654,7 +52652,7 @@
         <v>8.1999999999999998E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A71" s="54">
         <v>-5.6959999999999997E-3</v>
       </c>
@@ -52773,7 +52771,7 @@
         <v>8.0500000000000005E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A72" s="54">
         <v>-5.8580000000000004E-3</v>
       </c>
@@ -52892,7 +52890,7 @@
         <v>7.2800000000000002E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A73" s="54">
         <v>-5.921E-3</v>
       </c>
@@ -53011,7 +53009,7 @@
         <v>6.96E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A74" s="54">
         <v>-6.2139999999999999E-3</v>
       </c>
@@ -53130,7 +53128,7 @@
         <v>6.2600000000000004E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A75" s="54">
         <v>-6.3920000000000001E-3</v>
       </c>
@@ -53249,7 +53247,7 @@
         <v>5.3200000000000003E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A76" s="54">
         <v>-6.2729999999999999E-3</v>
       </c>
@@ -53368,7 +53366,7 @@
         <v>4.6200000000000001E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A77" s="54">
         <v>-6.2680000000000001E-3</v>
       </c>
@@ -53487,7 +53485,7 @@
         <v>3.3100000000000002E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A78" s="54">
         <v>-5.9680000000000002E-3</v>
       </c>
@@ -53606,7 +53604,7 @@
         <v>1.5699999999999999E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A79" s="54">
         <v>-5.9449999999999998E-3</v>
       </c>
@@ -53725,7 +53723,7 @@
         <v>1.15E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A80" s="54">
         <v>-6.0559999999999998E-3</v>
       </c>
@@ -53844,7 +53842,7 @@
         <v>1.1E-5</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A81" s="54">
         <v>-6.3150000000000003E-3</v>
       </c>
@@ -53963,7 +53961,7 @@
         <v>-3.3000000000000003E-5</v>
       </c>
     </row>
-    <row r="82" spans="1:39">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A82" s="54">
         <v>-6.4619999999999999E-3</v>
       </c>
@@ -54082,7 +54080,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="83" spans="1:39">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A83" s="54">
         <v>-6.7120000000000001E-3</v>
       </c>
@@ -54217,12 +54215,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="54"/>
+    <col min="1" max="16384" width="8.85546875" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="54">
         <v>-1.5546000000000001E-2</v>
       </c>
@@ -54341,7 +54339,7 @@
         <v>-8.8900000000000003E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="54">
         <v>-1.3672E-2</v>
       </c>
@@ -54460,7 +54458,7 @@
         <v>-7.3759999999999997E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="54">
         <v>-1.4838E-2</v>
       </c>
@@ -54579,7 +54577,7 @@
         <v>-7.1679999999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="54">
         <v>-1.4180999999999999E-2</v>
       </c>
@@ -54698,7 +54696,7 @@
         <v>-6.3870000000000003E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="54">
         <v>-1.2524E-2</v>
       </c>
@@ -54817,7 +54815,7 @@
         <v>-5.293E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="54">
         <v>-1.2055E-2</v>
       </c>
@@ -54936,7 +54934,7 @@
         <v>-5.607E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="54">
         <v>-1.0744999999999999E-2</v>
       </c>
@@ -55055,7 +55053,7 @@
         <v>-5.0029999999999996E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="54">
         <v>-9.2250000000000006E-3</v>
       </c>
@@ -55174,7 +55172,7 @@
         <v>-4.4419999999999998E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="54">
         <v>-8.2730000000000008E-3</v>
       </c>
@@ -55293,7 +55291,7 @@
         <v>-4.6759999999999996E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="54">
         <v>-7.4219999999999998E-3</v>
       </c>
@@ -55412,7 +55410,7 @@
         <v>-4.1700000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="54">
         <v>-6.3029999999999996E-3</v>
       </c>
@@ -55531,7 +55529,7 @@
         <v>-4.1799999999999997E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="54">
         <v>-5.4850000000000003E-3</v>
       </c>
@@ -55650,7 +55648,7 @@
         <v>-4.326E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="54">
         <v>-4.3680000000000004E-3</v>
       </c>
@@ -55769,7 +55767,7 @@
         <v>-4.0150000000000003E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="54">
         <v>-3.568E-3</v>
       </c>
@@ -55888,7 +55886,7 @@
         <v>-4.2550000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="54">
         <v>-2.882E-3</v>
       </c>
@@ -56007,7 +56005,7 @@
         <v>-4.1640000000000002E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="54">
         <v>-1.92E-3</v>
       </c>
@@ -56126,7 +56124,7 @@
         <v>-3.9529999999999999E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="54">
         <v>-1.407E-3</v>
       </c>
@@ -56245,7 +56243,7 @@
         <v>-4.5319999999999996E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="54">
         <v>-5.2700000000000002E-4</v>
       </c>
@@ -56364,7 +56362,7 @@
         <v>-4.0590000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="54">
         <v>-2.42E-4</v>
       </c>
@@ -56483,7 +56481,7 @@
         <v>-4.3179999999999998E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="54">
         <v>5.1E-5</v>
       </c>
@@ -56602,7 +56600,7 @@
         <v>-4.555E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="54">
         <v>3.8699999999999997E-4</v>
       </c>
@@ -56721,7 +56719,7 @@
         <v>-4.182E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="54">
         <v>2.4699999999999999E-4</v>
       </c>
@@ -56840,7 +56838,7 @@
         <v>-4.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="54">
         <v>4.15E-4</v>
       </c>
@@ -56959,7 +56957,7 @@
         <v>-4.4759999999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="54">
         <v>4.5600000000000003E-4</v>
       </c>
@@ -57078,7 +57076,7 @@
         <v>-4.3220000000000003E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="54">
         <v>4.8000000000000001E-5</v>
       </c>
@@ -57197,7 +57195,7 @@
         <v>-4.731E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="54">
         <v>-2.33E-4</v>
       </c>
@@ -57316,7 +57314,7 @@
         <v>-4.3119999999999999E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="54">
         <v>-7.9199999999999995E-4</v>
       </c>
@@ -57435,7 +57433,7 @@
         <v>-4.2919999999999998E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="54">
         <v>-9.5600000000000004E-4</v>
       </c>
@@ -57554,7 +57552,7 @@
         <v>-4.4900000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="54">
         <v>-7.2099999999999996E-4</v>
       </c>
@@ -57673,7 +57671,7 @@
         <v>-4.0610000000000004E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="54">
         <v>-1.16E-3</v>
       </c>
@@ -57792,7 +57790,7 @@
         <v>-4.1970000000000002E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="54">
         <v>-1.2830000000000001E-3</v>
       </c>
@@ -57911,7 +57909,7 @@
         <v>-4.176E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="54">
         <v>-1.356E-3</v>
       </c>
@@ -58030,7 +58028,7 @@
         <v>-3.7720000000000002E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="54">
         <v>-1.624E-3</v>
       </c>
@@ -58149,7 +58147,7 @@
         <v>-4.0099999999999997E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" s="54">
         <v>-1.609E-3</v>
       </c>
@@ -58268,7 +58266,7 @@
         <v>-3.7420000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" s="54">
         <v>-1.8619999999999999E-3</v>
       </c>
@@ -58387,7 +58385,7 @@
         <v>-3.5370000000000002E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" s="54">
         <v>-2.0999999999999999E-3</v>
       </c>
@@ -58506,7 +58504,7 @@
         <v>-3.8440000000000002E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="54">
         <v>-2.313E-3</v>
       </c>
@@ -58625,7 +58623,7 @@
         <v>-3.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="54">
         <v>-2.614E-3</v>
       </c>
@@ -58744,7 +58742,7 @@
         <v>-3.5349999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" s="54">
         <v>-2.617E-3</v>
       </c>
@@ -58863,7 +58861,7 @@
         <v>-3.6519999999999999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" s="54">
         <v>-3.0240000000000002E-3</v>
       </c>
@@ -58982,7 +58980,7 @@
         <v>-3.339E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" s="54">
         <v>-3.0430000000000001E-3</v>
       </c>
@@ -59101,7 +59099,7 @@
         <v>-3.4199999999999999E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" s="54">
         <v>-2.8040000000000001E-3</v>
       </c>
@@ -59220,7 +59218,7 @@
         <v>-3.356E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" s="54">
         <v>-2.9789999999999999E-3</v>
       </c>
@@ -59339,7 +59337,7 @@
         <v>-3.1159999999999998E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" s="54">
         <v>-3.117E-3</v>
       </c>
@@ -59458,7 +59456,7 @@
         <v>-3.1700000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" s="54">
         <v>-2.3089999999999999E-3</v>
       </c>
@@ -59577,7 +59575,7 @@
         <v>-2.7490000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" s="54">
         <v>-2.166E-3</v>
       </c>
@@ -59696,7 +59694,7 @@
         <v>-2.836E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" s="54">
         <v>-1.933E-3</v>
       </c>
@@ -59815,7 +59813,7 @@
         <v>-2.8E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" s="54">
         <v>-1.915E-3</v>
       </c>
@@ -59934,7 +59932,7 @@
         <v>-2.7829999999999999E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" s="54">
         <v>-1.9059999999999999E-3</v>
       </c>
@@ -60053,7 +60051,7 @@
         <v>-2.7339999999999999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" s="54">
         <v>-1.807E-3</v>
       </c>
@@ -60172,7 +60170,7 @@
         <v>-2.6090000000000002E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51" s="54">
         <v>-1.928E-3</v>
       </c>
@@ -60291,7 +60289,7 @@
         <v>-2.5760000000000002E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52" s="54">
         <v>-1.7060000000000001E-3</v>
       </c>
@@ -60410,7 +60408,7 @@
         <v>-2.2959999999999999E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" s="54">
         <v>-1.58E-3</v>
       </c>
@@ -60529,7 +60527,7 @@
         <v>-2.209E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54" s="54">
         <v>-1.4970000000000001E-3</v>
       </c>
@@ -60648,7 +60646,7 @@
         <v>-2.0820000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55" s="54">
         <v>-1.3290000000000001E-3</v>
       </c>
@@ -60767,7 +60765,7 @@
         <v>-1.9840000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56" s="54">
         <v>-9.990000000000001E-4</v>
       </c>
@@ -60886,7 +60884,7 @@
         <v>-1.8090000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57" s="54">
         <v>-8.8900000000000003E-4</v>
       </c>
@@ -61005,7 +61003,7 @@
         <v>-1.609E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58" s="54">
         <v>-7.6300000000000001E-4</v>
       </c>
@@ -61124,7 +61122,7 @@
         <v>-1.5219999999999999E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59" s="54">
         <v>-5.1400000000000003E-4</v>
       </c>
@@ -61243,7 +61241,7 @@
         <v>-1.3519999999999999E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60" s="54">
         <v>-2.81E-4</v>
       </c>
@@ -61362,7 +61360,7 @@
         <v>-1.2390000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61" s="54">
         <v>-1.2E-5</v>
       </c>
@@ -61481,7 +61479,7 @@
         <v>-1.1509999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62" s="54">
         <v>2.34E-4</v>
       </c>
@@ -61600,7 +61598,7 @@
         <v>-9.2599999999999996E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63" s="54">
         <v>3.0499999999999999E-4</v>
       </c>
@@ -61719,7 +61717,7 @@
         <v>-8.3199999999999995E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64" s="54">
         <v>5.4299999999999997E-4</v>
       </c>
@@ -61838,7 +61836,7 @@
         <v>-6.78E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A65" s="54">
         <v>8.3000000000000001E-4</v>
       </c>
@@ -61957,7 +61955,7 @@
         <v>-4.9700000000000005E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A66" s="54">
         <v>9.1799999999999998E-4</v>
       </c>
@@ -62076,7 +62074,7 @@
         <v>-4.95E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A67" s="54">
         <v>1.0020000000000001E-3</v>
       </c>
@@ -62195,7 +62193,7 @@
         <v>-2.6699999999999998E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A68" s="54">
         <v>1.4369999999999999E-3</v>
       </c>
@@ -62314,7 +62312,7 @@
         <v>-6.3999999999999997E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A69" s="54">
         <v>1.475E-3</v>
       </c>
@@ -62433,7 +62431,7 @@
         <v>-1.1900000000000001E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A70" s="54">
         <v>1.6980000000000001E-3</v>
       </c>
@@ -62552,7 +62550,7 @@
         <v>1.45E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A71" s="54">
         <v>1.701E-3</v>
       </c>
@@ -62671,7 +62669,7 @@
         <v>8.7999999999999998E-5</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A72" s="54">
         <v>1.8140000000000001E-3</v>
       </c>
@@ -62790,7 +62788,7 @@
         <v>8.6000000000000003E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A73" s="54">
         <v>2.0089999999999999E-3</v>
       </c>
@@ -62909,7 +62907,7 @@
         <v>3.2400000000000001E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A74" s="54">
         <v>1.7520000000000001E-3</v>
       </c>
@@ -63028,7 +63026,7 @@
         <v>1.03E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A75" s="54">
         <v>1.9109999999999999E-3</v>
       </c>
@@ -63147,7 +63145,7 @@
         <v>1.8100000000000001E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A76" s="54">
         <v>2.3600000000000001E-3</v>
       </c>
@@ -63266,7 +63264,7 @@
         <v>2.7799999999999998E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A77" s="54">
         <v>2.954E-3</v>
       </c>
@@ -63385,7 +63383,7 @@
         <v>-5.5000000000000002E-5</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A78" s="54">
         <v>3.614E-3</v>
       </c>
@@ -63504,7 +63502,7 @@
         <v>1.7799999999999999E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A79" s="54">
         <v>3.4299999999999999E-3</v>
       </c>
@@ -63623,7 +63621,7 @@
         <v>6.8999999999999997E-5</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A80" s="54">
         <v>3.5969999999999999E-3</v>
       </c>
@@ -63742,7 +63740,7 @@
         <v>1.2999999999999999E-5</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A81" s="54">
         <v>4.1399999999999996E-3</v>
       </c>
@@ -63861,7 +63859,7 @@
         <v>1.2400000000000001E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:39">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A82" s="54">
         <v>4.2360000000000002E-3</v>
       </c>
@@ -63980,7 +63978,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="83" spans="1:39">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A83" s="54">
         <v>4.0670000000000003E-3</v>
       </c>
@@ -64115,12 +64113,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="54"/>
+    <col min="1" max="16384" width="8.85546875" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="54">
         <v>-0.109416</v>
       </c>
@@ -64236,7 +64234,7 @@
         <v>5.2016E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="54">
         <v>-9.2915999999999999E-2</v>
       </c>
@@ -64352,7 +64350,7 @@
         <v>3.9732000000000003E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="54">
         <v>-7.4315999999999993E-2</v>
       </c>
@@ -64468,7 +64466,7 @@
         <v>2.8951999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="54">
         <v>-6.0026000000000003E-2</v>
       </c>
@@ -64584,7 +64582,7 @@
         <v>1.9123999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="54">
         <v>-4.8659000000000001E-2</v>
       </c>
@@ -64700,7 +64698,7 @@
         <v>1.2511E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="54">
         <v>-4.0946000000000003E-2</v>
       </c>
@@ -64816,7 +64814,7 @@
         <v>7.8519999999999996E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="54">
         <v>-3.5154999999999999E-2</v>
       </c>
@@ -64932,7 +64930,7 @@
         <v>4.9240000000000004E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="54">
         <v>-3.1331999999999999E-2</v>
       </c>
@@ -65048,7 +65046,7 @@
         <v>2.9480000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="54">
         <v>-2.8327999999999999E-2</v>
       </c>
@@ -65164,7 +65162,7 @@
         <v>1.5430000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="54">
         <v>-2.4981E-2</v>
       </c>
@@ -65280,7 +65278,7 @@
         <v>2.81E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="54">
         <v>-2.2988000000000001E-2</v>
       </c>
@@ -65396,7 +65394,7 @@
         <v>-8.7200000000000005E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="54">
         <v>-2.0725E-2</v>
       </c>
@@ -65512,7 +65510,7 @@
         <v>-1.5399999999999999E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="54">
         <v>-1.8735999999999999E-2</v>
       </c>
@@ -65628,7 +65626,7 @@
         <v>-2.1789999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="54">
         <v>-1.6792000000000001E-2</v>
       </c>
@@ -65744,7 +65742,7 @@
         <v>-2.7889999999999998E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="54">
         <v>-1.5217E-2</v>
       </c>
@@ -65860,7 +65858,7 @@
         <v>-3.1080000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="54">
         <v>-1.3467E-2</v>
       </c>
@@ -65976,7 +65974,7 @@
         <v>-3.5869999999999999E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="54">
         <v>-1.1993999999999999E-2</v>
       </c>
@@ -66092,7 +66090,7 @@
         <v>-3.8379999999999998E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="54">
         <v>-1.0652E-2</v>
       </c>
@@ -66208,7 +66206,7 @@
         <v>-3.9680000000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="54">
         <v>-9.6010000000000002E-3</v>
       </c>
@@ -66324,7 +66322,7 @@
         <v>-4.2690000000000002E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="54">
         <v>-8.4869999999999998E-3</v>
       </c>
@@ -66440,7 +66438,7 @@
         <v>-4.3039999999999997E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="54">
         <v>-7.3689999999999997E-3</v>
       </c>
@@ -66556,7 +66554,7 @@
         <v>-4.3309999999999998E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="54">
         <v>-6.4819999999999999E-3</v>
       </c>
@@ -66672,7 +66670,7 @@
         <v>-4.3769999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="54">
         <v>-5.8310000000000002E-3</v>
       </c>
@@ -66788,7 +66786,7 @@
         <v>-4.3499999999999997E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="54">
         <v>-4.888E-3</v>
       </c>
@@ -66904,7 +66902,7 @@
         <v>-4.2399999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="54">
         <v>-4.2119999999999996E-3</v>
       </c>
@@ -67020,7 +67018,7 @@
         <v>-4.1089999999999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="54">
         <v>-3.6110000000000001E-3</v>
       </c>
@@ -67136,7 +67134,7 @@
         <v>-3.9420000000000002E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="54">
         <v>-3.101E-3</v>
       </c>
@@ -67252,7 +67250,7 @@
         <v>-3.784E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="54">
         <v>-2.6059999999999998E-3</v>
       </c>
@@ -67368,7 +67366,7 @@
         <v>-3.4940000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="54">
         <v>-1.9580000000000001E-3</v>
       </c>
@@ -67484,7 +67482,7 @@
         <v>-3.225E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="54">
         <v>-1.547E-3</v>
       </c>
@@ -67600,7 +67598,7 @@
         <v>-2.813E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="54">
         <v>-1.1150000000000001E-3</v>
       </c>
@@ -67716,7 +67714,7 @@
         <v>-2.467E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="54">
         <v>-8.6899999999999998E-4</v>
       </c>
@@ -67832,7 +67830,7 @@
         <v>-2.134E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" s="54">
         <v>-5.8299999999999997E-4</v>
       </c>
@@ -67948,7 +67946,7 @@
         <v>-1.7290000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34" s="54">
         <v>-7.9900000000000001E-4</v>
       </c>
@@ -68064,7 +68062,7 @@
         <v>-1.451E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35" s="54">
         <v>-1.036E-3</v>
       </c>
@@ -68180,7 +68178,7 @@
         <v>-1.1670000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36" s="54">
         <v>-9.8900000000000008E-4</v>
       </c>
@@ -68296,7 +68294,7 @@
         <v>-8.9700000000000001E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" s="54">
         <v>-1.085E-3</v>
       </c>
@@ -68412,7 +68410,7 @@
         <v>-7.7999999999999999E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="54">
         <v>-6.9999999999999999E-4</v>
       </c>
@@ -68528,7 +68526,7 @@
         <v>-6.5700000000000003E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39" s="54">
         <v>-3.57E-4</v>
       </c>
@@ -68644,7 +68642,7 @@
         <v>-5.8100000000000003E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40" s="54">
         <v>-4.1E-5</v>
       </c>
@@ -68760,7 +68758,7 @@
         <v>-5.9400000000000002E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41" s="54">
         <v>4.26E-4</v>
       </c>
@@ -68876,7 +68874,7 @@
         <v>-5.9699999999999998E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42" s="54">
         <v>1.3029999999999999E-3</v>
       </c>
@@ -68992,7 +68990,7 @@
         <v>-2.3900000000000002E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43" s="54">
         <v>1.157E-3</v>
       </c>
@@ -69108,7 +69106,7 @@
         <v>-2.4989999999999999E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44" s="54">
         <v>9.6900000000000003E-4</v>
       </c>
@@ -69224,7 +69222,7 @@
         <v>-2.6150000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:38">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45" s="54">
         <v>8.5099999999999998E-4</v>
       </c>
@@ -69340,7 +69338,7 @@
         <v>-2.7049999999999999E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46" s="54">
         <v>4.9100000000000001E-4</v>
       </c>
@@ -69456,7 +69454,7 @@
         <v>-2.794E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:38">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47" s="54">
         <v>4.8200000000000001E-4</v>
       </c>
@@ -69572,7 +69570,7 @@
         <v>-2.8189999999999999E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48" s="54">
         <v>3.6000000000000002E-4</v>
       </c>
@@ -69688,7 +69686,7 @@
         <v>-2.8279999999999998E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" s="54">
         <v>3.3E-4</v>
       </c>
@@ -69804,7 +69802,7 @@
         <v>-2.7859999999999998E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" s="54">
         <v>3.8299999999999999E-4</v>
       </c>
@@ -69920,7 +69918,7 @@
         <v>-2.7590000000000002E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51" s="54">
         <v>3.9800000000000002E-4</v>
       </c>
@@ -70036,7 +70034,7 @@
         <v>-2.6580000000000002E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" s="54">
         <v>2.9799999999999998E-4</v>
       </c>
@@ -70152,7 +70150,7 @@
         <v>-2.5300000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" s="54">
         <v>3.86E-4</v>
       </c>
@@ -70268,7 +70266,7 @@
         <v>-2.3869999999999998E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" s="54">
         <v>4.2999999999999999E-4</v>
       </c>
@@ -70384,7 +70382,7 @@
         <v>-2.2260000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55" s="54">
         <v>4.0999999999999999E-4</v>
       </c>
@@ -70500,7 +70498,7 @@
         <v>-2.075E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:38">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="54">
         <v>4.0200000000000001E-4</v>
       </c>
@@ -70616,7 +70614,7 @@
         <v>-1.8979999999999999E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:38">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" s="54">
         <v>3.5300000000000002E-4</v>
       </c>
@@ -70732,7 +70730,7 @@
         <v>-1.7229999999999999E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" s="54">
         <v>1.3300000000000001E-4</v>
       </c>
@@ -70848,7 +70846,7 @@
         <v>-1.562E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:38">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="54">
         <v>1.85E-4</v>
       </c>
@@ -70964,7 +70962,7 @@
         <v>-1.3849999999999999E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:38">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="54">
         <v>2.31E-4</v>
       </c>
@@ -71080,7 +71078,7 @@
         <v>-1.2340000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:38">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" s="54">
         <v>3.6099999999999999E-4</v>
       </c>
@@ -71196,7 +71194,7 @@
         <v>-1.0560000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:38">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" s="54">
         <v>2.9700000000000001E-4</v>
       </c>
@@ -71312,7 +71310,7 @@
         <v>-9.2400000000000002E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:38">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" s="54">
         <v>4.1599999999999997E-4</v>
       </c>
@@ -71428,7 +71426,7 @@
         <v>-7.6400000000000003E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:38">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" s="54">
         <v>3.9300000000000001E-4</v>
       </c>
@@ -71544,7 +71542,7 @@
         <v>-5.9699999999999998E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:38">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65" s="54">
         <v>3.5500000000000001E-4</v>
       </c>
@@ -71660,7 +71658,7 @@
         <v>-3.9500000000000001E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:38">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" s="54">
         <v>2.1000000000000001E-4</v>
       </c>
@@ -71776,7 +71774,7 @@
         <v>-2.8899999999999998E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:38">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67" s="54">
         <v>2.2000000000000001E-4</v>
       </c>
@@ -71892,7 +71890,7 @@
         <v>-8.7999999999999998E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:38">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68" s="54">
         <v>4.0299999999999998E-4</v>
       </c>
@@ -72008,7 +72006,7 @@
         <v>-2.5000000000000001E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:38">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69" s="54">
         <v>4.35E-4</v>
       </c>
@@ -72124,7 +72122,7 @@
         <v>7.7999999999999999E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:38">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" s="54">
         <v>4.2999999999999999E-4</v>
       </c>
@@ -72240,7 +72238,7 @@
         <v>1.45E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:38">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" s="54">
         <v>4.7199999999999998E-4</v>
       </c>
@@ -72356,7 +72354,7 @@
         <v>2.3699999999999999E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:38">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" s="54">
         <v>7.8399999999999997E-4</v>
       </c>
@@ -72472,7 +72470,7 @@
         <v>4.15E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:38">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" s="54">
         <v>5.9599999999999996E-4</v>
       </c>
@@ -72588,7 +72586,7 @@
         <v>5.0699999999999996E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:38">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" s="54">
         <v>2.5300000000000002E-4</v>
       </c>
@@ -72704,7 +72702,7 @@
         <v>5.5699999999999999E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:38">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75" s="54">
         <v>2.3E-5</v>
       </c>
@@ -72820,7 +72818,7 @@
         <v>6.0599999999999998E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:38">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76" s="54">
         <v>-2.22E-4</v>
       </c>
@@ -72936,7 +72934,7 @@
         <v>6.5300000000000004E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:38">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77" s="54">
         <v>-3.0600000000000001E-4</v>
       </c>
@@ -73052,7 +73050,7 @@
         <v>6.29E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:38">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78" s="54">
         <v>-3.01E-4</v>
       </c>
@@ -73168,7 +73166,7 @@
         <v>6.4899999999999995E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:38">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79" s="54">
         <v>-6.2100000000000002E-4</v>
       </c>
@@ -73284,7 +73282,7 @@
         <v>5.9599999999999996E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:38">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80" s="54">
         <v>-2.7500000000000002E-4</v>
       </c>
@@ -73416,12 +73414,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="54"/>
+    <col min="1" max="16384" width="8.85546875" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="54">
         <v>-1.8799999999999999E-4</v>
       </c>
@@ -73537,7 +73535,7 @@
         <v>-1.4964999999999999E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="54">
         <v>2.3210000000000001E-3</v>
       </c>
@@ -73653,7 +73651,7 @@
         <v>-1.0926999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="54">
         <v>-5.1960000000000001E-3</v>
       </c>
@@ -73769,7 +73767,7 @@
         <v>-9.7809999999999998E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="54">
         <v>-9.4160000000000008E-3</v>
       </c>
@@ -73885,7 +73883,7 @@
         <v>-7.2550000000000002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="54">
         <v>-8.4010000000000005E-3</v>
       </c>
@@ -74001,7 +73999,7 @@
         <v>-6.6360000000000004E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="54">
         <v>-1.1429E-2</v>
       </c>
@@ -74117,7 +74115,7 @@
         <v>-4.6860000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="54">
         <v>-1.273E-2</v>
       </c>
@@ -74233,7 +74231,7 @@
         <v>-4.0369999999999998E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="54">
         <v>-1.4896E-2</v>
       </c>
@@ -74349,7 +74347,7 @@
         <v>-2.9129999999999998E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="54">
         <v>-1.5589E-2</v>
       </c>
@@ -74465,7 +74463,7 @@
         <v>-2.0560000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="54">
         <v>-1.6633999999999999E-2</v>
       </c>
@@ -74581,7 +74579,7 @@
         <v>-9.41E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="54">
         <v>-1.8329000000000002E-2</v>
       </c>
@@ -74697,7 +74695,7 @@
         <v>-1.2329999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="54">
         <v>-1.7891000000000001E-2</v>
       </c>
@@ -74813,7 +74811,7 @@
         <v>-6.29E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="54">
         <v>-1.839E-2</v>
       </c>
@@ -74929,7 +74927,7 @@
         <v>-1.4200000000000001E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="54">
         <v>-1.9127000000000002E-2</v>
       </c>
@@ -75045,7 +75043,7 @@
         <v>-9.5000000000000005E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="54">
         <v>-1.8342000000000001E-2</v>
       </c>
@@ -75161,7 +75159,7 @@
         <v>3.4000000000000002E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="54">
         <v>-1.9342999999999999E-2</v>
       </c>
@@ -75277,7 +75275,7 @@
         <v>1.65E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="54">
         <v>-1.8837E-2</v>
       </c>
@@ -75393,7 +75391,7 @@
         <v>3.6699999999999998E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="54">
         <v>-1.8706E-2</v>
       </c>
@@ -75509,7 +75507,7 @@
         <v>6.2100000000000002E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="54">
         <v>-1.8592000000000001E-2</v>
       </c>
@@ -75625,7 +75623,7 @@
         <v>6.0999999999999997E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="54">
         <v>-1.8738999999999999E-2</v>
       </c>
@@ -75741,7 +75739,7 @@
         <v>3.8000000000000002E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="54">
         <v>-1.7999999999999999E-2</v>
       </c>
@@ -75857,7 +75855,7 @@
         <v>7.27E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="54">
         <v>-1.8481000000000001E-2</v>
       </c>
@@ -75973,7 +75971,7 @@
         <v>5.3300000000000005E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="54">
         <v>-1.8211000000000001E-2</v>
       </c>
@@ -76089,7 +76087,7 @@
         <v>6.5700000000000003E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="54">
         <v>-1.796E-2</v>
       </c>
@@ -76205,7 +76203,7 @@
         <v>6.5700000000000003E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="54">
         <v>-1.7760999999999999E-2</v>
       </c>
@@ -76321,7 +76319,7 @@
         <v>5.7899999999999998E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="54">
         <v>-1.7401E-2</v>
       </c>
@@ -76437,7 +76435,7 @@
         <v>6.3500000000000004E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="54">
         <v>-1.7576999999999999E-2</v>
       </c>
@@ -76553,7 +76551,7 @@
         <v>4.8799999999999999E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="54">
         <v>-1.6931999999999999E-2</v>
       </c>
@@ -76669,7 +76667,7 @@
         <v>5.3600000000000002E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="54">
         <v>-1.6695000000000002E-2</v>
       </c>
@@ -76785,7 +76783,7 @@
         <v>4.4499999999999997E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="54">
         <v>-1.6258999999999999E-2</v>
       </c>
@@ -76901,7 +76899,7 @@
         <v>4.3300000000000001E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="54">
         <v>-1.6271000000000001E-2</v>
       </c>
@@ -77017,7 +77015,7 @@
         <v>3.1300000000000002E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="54">
         <v>-1.5495E-2</v>
       </c>
@@ -77133,7 +77131,7 @@
         <v>3.1100000000000002E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" s="54">
         <v>-1.5363999999999999E-2</v>
       </c>
@@ -77249,7 +77247,7 @@
         <v>2.32E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34" s="54">
         <v>-1.4798E-2</v>
       </c>
@@ -77365,7 +77363,7 @@
         <v>3.8000000000000002E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35" s="54">
         <v>-1.4511E-2</v>
       </c>
@@ -77481,7 +77479,7 @@
         <v>3.4099999999999999E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36" s="54">
         <v>-1.4328E-2</v>
       </c>
@@ -77597,7 +77595,7 @@
         <v>4.0299999999999998E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" s="54">
         <v>-1.404E-2</v>
       </c>
@@ -77713,7 +77711,7 @@
         <v>4.0700000000000003E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="54">
         <v>-1.4097999999999999E-2</v>
       </c>
@@ -77829,7 +77827,7 @@
         <v>5.0699999999999996E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39" s="54">
         <v>-1.4057E-2</v>
       </c>
@@ -77945,7 +77943,7 @@
         <v>5.4799999999999998E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40" s="54">
         <v>-1.3736999999999999E-2</v>
       </c>
@@ -78061,7 +78059,7 @@
         <v>6.5700000000000003E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41" s="54">
         <v>-1.3611E-2</v>
       </c>
@@ -78177,7 +78175,7 @@
         <v>6.7100000000000005E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42" s="54">
         <v>-1.4662E-2</v>
       </c>
@@ -78293,7 +78291,7 @@
         <v>1.872E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43" s="54">
         <v>-1.4466E-2</v>
       </c>
@@ -78409,7 +78407,7 @@
         <v>1.9530000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44" s="54">
         <v>-1.4425E-2</v>
       </c>
@@ -78525,7 +78523,7 @@
         <v>1.926E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:38">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45" s="54">
         <v>-1.3972999999999999E-2</v>
       </c>
@@ -78641,7 +78639,7 @@
         <v>1.936E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46" s="54">
         <v>-1.3828E-2</v>
       </c>
@@ -78757,7 +78755,7 @@
         <v>1.946E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:38">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47" s="54">
         <v>-1.3573999999999999E-2</v>
       </c>
@@ -78873,7 +78871,7 @@
         <v>1.8420000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48" s="54">
         <v>-1.3329000000000001E-2</v>
       </c>
@@ -78989,7 +78987,7 @@
         <v>1.853E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" s="54">
         <v>-1.3155E-2</v>
       </c>
@@ -79105,7 +79103,7 @@
         <v>1.7489999999999999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" s="54">
         <v>-1.3275E-2</v>
       </c>
@@ -79221,7 +79219,7 @@
         <v>1.619E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51" s="54">
         <v>-1.3044999999999999E-2</v>
       </c>
@@ -79337,7 +79335,7 @@
         <v>1.5430000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" s="54">
         <v>-1.3056999999999999E-2</v>
       </c>
@@ -79453,7 +79451,7 @@
         <v>1.4170000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" s="54">
         <v>-1.2808999999999999E-2</v>
       </c>
@@ -79569,7 +79567,7 @@
         <v>1.325E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" s="54">
         <v>-1.2736000000000001E-2</v>
       </c>
@@ -79685,7 +79683,7 @@
         <v>1.111E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55" s="54">
         <v>-1.2442E-2</v>
       </c>
@@ -79801,7 +79799,7 @@
         <v>9.6299999999999999E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:38">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="54">
         <v>-1.2503E-2</v>
       </c>
@@ -79917,7 +79915,7 @@
         <v>8.2200000000000003E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:38">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" s="54">
         <v>-1.2456999999999999E-2</v>
       </c>
@@ -80033,7 +80031,7 @@
         <v>6.8099999999999996E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" s="54">
         <v>-1.2348E-2</v>
       </c>
@@ -80149,7 +80147,7 @@
         <v>5.9599999999999996E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:38">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="54">
         <v>-1.2356000000000001E-2</v>
       </c>
@@ -80265,7 +80263,7 @@
         <v>4.8799999999999999E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:38">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="54">
         <v>-1.2666E-2</v>
       </c>
@@ -80381,7 +80379,7 @@
         <v>3.6000000000000002E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:38">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" s="54">
         <v>-1.2446E-2</v>
       </c>
@@ -80497,7 +80495,7 @@
         <v>3.3300000000000002E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:38">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" s="54">
         <v>-1.2429000000000001E-2</v>
       </c>
@@ -80613,7 +80611,7 @@
         <v>2.7E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:38">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" s="54">
         <v>-1.2241E-2</v>
       </c>
@@ -80729,7 +80727,7 @@
         <v>3.2499999999999999E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:38">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" s="54">
         <v>-1.2192E-2</v>
       </c>
@@ -80845,7 +80843,7 @@
         <v>3.3300000000000002E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:38">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65" s="54">
         <v>-1.2024E-2</v>
       </c>
@@ -80961,7 +80959,7 @@
         <v>2.34E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:38">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" s="54">
         <v>-1.1712E-2</v>
       </c>
@@ -81077,7 +81075,7 @@
         <v>3.1799999999999998E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:38">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67" s="54">
         <v>-1.1445E-2</v>
       </c>
@@ -81193,7 +81191,7 @@
         <v>3.4299999999999999E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:38">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68" s="54">
         <v>-1.0829999999999999E-2</v>
       </c>
@@ -81309,7 +81307,7 @@
         <v>3.9899999999999999E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:38">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69" s="54">
         <v>-1.0755000000000001E-2</v>
       </c>
@@ -81425,7 +81423,7 @@
         <v>3.9599999999999998E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:38">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" s="54">
         <v>-1.0411E-2</v>
       </c>
@@ -81541,7 +81539,7 @@
         <v>3.5300000000000002E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:38">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" s="54">
         <v>-1.0499E-2</v>
       </c>
@@ -81657,7 +81655,7 @@
         <v>3.8400000000000001E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:38">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" s="54">
         <v>-9.9609999999999994E-3</v>
       </c>
@@ -81773,7 +81771,7 @@
         <v>3.8299999999999999E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:38">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" s="54">
         <v>-9.554E-3</v>
       </c>
@@ -81889,7 +81887,7 @@
         <v>4.7199999999999998E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:38">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" s="54">
         <v>-9.5350000000000001E-3</v>
       </c>
@@ -82005,7 +82003,7 @@
         <v>4.75E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:38">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75" s="54">
         <v>-9.3430000000000006E-3</v>
       </c>
@@ -82121,7 +82119,7 @@
         <v>4.6500000000000003E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:38">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76" s="54">
         <v>-9.3369999999999998E-3</v>
       </c>
@@ -82237,7 +82235,7 @@
         <v>4.7399999999999997E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:38">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77" s="54">
         <v>-9.1559999999999992E-3</v>
       </c>
@@ -82353,7 +82351,7 @@
         <v>5.31E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:38">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78" s="54">
         <v>-9.4289999999999999E-3</v>
       </c>
@@ -82469,7 +82467,7 @@
         <v>5.1400000000000003E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:38">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79" s="54">
         <v>-9.6100000000000005E-3</v>
       </c>
@@ -82585,7 +82583,7 @@
         <v>5.3899999999999998E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:38">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80" s="54">
         <v>-1.7344999999999999E-2</v>
       </c>
